--- a/data/source/a-level/alevel_2020_wa.xlsx
+++ b/data/source/a-level/alevel_2020_wa.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jointcouncilqualifications.sharepoint.com/sites/JCQData/Shared Documents/Operations/Results/Summer Exam Series/2020/Website Files/A Level and AS Results Summer 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Results day\microsite\data\source\a-level\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_CFF31E641CD9CC693B9956D059A8A1B9177EB1CD" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BD67ACDF-D3D5-4B21-BCB4-94F1947D08C7}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19545" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Wales All Ages cum %" sheetId="1" r:id="rId1"/>
@@ -220,19 +219,19 @@
     <t>(3) - Other modern languages includes all languages except French, German, Irish, Spanish and Welsh</t>
   </si>
   <si>
-    <t>Performing / Expressive Arts (4)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - </t>
   </si>
   <si>
     <t xml:space="preserve">(4) - Very low entry figures (-) not published, but are counted in 'All Subjects'  </t>
   </si>
+  <si>
+    <t>Performing / Expressive Arts (4)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="##0.0"/>
@@ -387,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -441,6 +440,9 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,17 +767,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -783,83 +785,86 @@
     <col min="5" max="11" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="21" t="s">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="21" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,17 +877,17 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
@@ -913,7 +918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -921,34 +926,34 @@
         <v>20</v>
       </c>
       <c r="C12" s="9">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D12" s="13">
-        <v>3.0645886407912482</v>
+        <v>3.0649622486357182</v>
       </c>
       <c r="E12" s="11">
-        <v>8.8019559902200495</v>
+        <v>10.975609756097562</v>
       </c>
       <c r="F12" s="11">
-        <v>19.559902200488999</v>
+        <v>29.024390243902438</v>
       </c>
       <c r="G12" s="11">
-        <v>44.254278728606359</v>
+        <v>58.536585365853654</v>
       </c>
       <c r="H12" s="11">
-        <v>70.904645476772615</v>
+        <v>91.463414634146346</v>
       </c>
       <c r="I12" s="11">
-        <v>90.953545232273839</v>
+        <v>98.780487804878049</v>
       </c>
       <c r="J12" s="11">
-        <v>96.088019559902207</v>
+        <v>99.756097560975604</v>
       </c>
       <c r="K12" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="15">
@@ -979,7 +984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -987,34 +992,34 @@
         <v>22</v>
       </c>
       <c r="C14" s="9">
-        <v>1280</v>
+        <v>1287</v>
       </c>
       <c r="D14" s="13">
-        <v>7.4845047362881525</v>
+        <v>7.5105042016806722</v>
       </c>
       <c r="E14" s="11">
-        <v>10.859375</v>
+        <v>17.094017094017094</v>
       </c>
       <c r="F14" s="11">
-        <v>32.890625</v>
+        <v>44.133644133644133</v>
       </c>
       <c r="G14" s="11">
-        <v>58.671874999999993</v>
+        <v>75.990675990675996</v>
       </c>
       <c r="H14" s="11">
-        <v>83.4375</v>
+        <v>95.104895104895107</v>
       </c>
       <c r="I14" s="11">
-        <v>95</v>
+        <v>99.456099456099452</v>
       </c>
       <c r="J14" s="11">
-        <v>98.984375</v>
+        <v>100</v>
       </c>
       <c r="K14" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="15">
@@ -1045,7 +1050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1053,34 +1058,34 @@
         <v>23</v>
       </c>
       <c r="C16" s="9">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="D16" s="13">
-        <v>5.5471623751970576</v>
+        <v>5.5615639235735586</v>
       </c>
       <c r="E16" s="11">
-        <v>10.361160449970397</v>
+        <v>15.615792575132586</v>
       </c>
       <c r="F16" s="11">
-        <v>29.662522202486681</v>
+        <v>40.483205657041836</v>
       </c>
       <c r="G16" s="11">
-        <v>55.180580224985199</v>
+        <v>71.773718326458464</v>
       </c>
       <c r="H16" s="11">
-        <v>80.402605091770269</v>
+        <v>94.225103123158519</v>
       </c>
       <c r="I16" s="11">
-        <v>94.020130254588523</v>
+        <v>99.292869770182676</v>
       </c>
       <c r="J16" s="11">
-        <v>98.283007696862043</v>
+        <v>99.941072480848561</v>
       </c>
       <c r="K16" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="15">
@@ -1111,7 +1116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="15"/>
@@ -1124,7 +1129,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1132,34 +1137,34 @@
         <v>20</v>
       </c>
       <c r="C19" s="9">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="D19" s="13">
-        <v>7.2905739547429942</v>
+        <v>7.3260073260073266</v>
       </c>
       <c r="E19" s="11">
-        <v>11.613566289825282</v>
+        <v>15.612244897959185</v>
       </c>
       <c r="F19" s="11">
-        <v>30.62692702980473</v>
+        <v>42.448979591836732</v>
       </c>
       <c r="G19" s="11">
-        <v>53.54573484069887</v>
+        <v>67.346938775510196</v>
       </c>
       <c r="H19" s="11">
-        <v>75.745118191161353</v>
+        <v>90.204081632653072</v>
       </c>
       <c r="I19" s="11">
-        <v>90.236382322713254</v>
+        <v>98.367346938775512</v>
       </c>
       <c r="J19" s="11">
-        <v>97.841726618705039</v>
+        <v>99.795918367346943</v>
       </c>
       <c r="K19" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="15">
@@ -1190,7 +1195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -1198,34 +1203,34 @@
         <v>22</v>
       </c>
       <c r="C21" s="9">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="D21" s="13">
-        <v>9.9754414688340542</v>
+        <v>9.9673202614379086</v>
       </c>
       <c r="E21" s="11">
-        <v>13.540445486518172</v>
+        <v>18.266978922716628</v>
       </c>
       <c r="F21" s="11">
-        <v>33.587338804220401</v>
+        <v>45.316159250585478</v>
       </c>
       <c r="G21" s="11">
-        <v>55.978898007033997</v>
+        <v>71.077283372365343</v>
       </c>
       <c r="H21" s="11">
-        <v>76.787807737397415</v>
+        <v>90.632318501170957</v>
       </c>
       <c r="I21" s="11">
-        <v>92.145369284876907</v>
+        <v>98.711943793911004</v>
       </c>
       <c r="J21" s="11">
-        <v>98.417350527549829</v>
+        <v>99.882903981264633</v>
       </c>
       <c r="K21" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="15">
@@ -1256,7 +1261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -1264,34 +1269,34 @@
         <v>23</v>
       </c>
       <c r="C23" s="9">
-        <v>2679</v>
+        <v>2688</v>
       </c>
       <c r="D23" s="13">
-        <v>8.7986074619022592</v>
+        <v>8.8093599449414999</v>
       </c>
       <c r="E23" s="11">
-        <v>12.840612168719673</v>
+        <v>17.299107142857142</v>
       </c>
       <c r="F23" s="11">
-        <v>32.512131392310565</v>
+        <v>44.270833333333329</v>
       </c>
       <c r="G23" s="11">
-        <v>55.095184770436731</v>
+        <v>69.717261904761912</v>
       </c>
       <c r="H23" s="11">
-        <v>76.409107876073151</v>
+        <v>90.476190476190482</v>
       </c>
       <c r="I23" s="11">
-        <v>91.45203434117208</v>
+        <v>98.586309523809518</v>
       </c>
       <c r="J23" s="11">
-        <v>98.20828667413214</v>
+        <v>99.851190476190482</v>
       </c>
       <c r="K23" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="15">
@@ -1322,7 +1327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="15"/>
@@ -1335,7 +1340,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -1343,34 +1348,34 @@
         <v>20</v>
       </c>
       <c r="C26" s="9">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D26" s="13">
-        <v>5.2600029971527045</v>
+        <v>5.2552889287583167</v>
       </c>
       <c r="E26" s="11">
-        <v>2.9914529914529915</v>
+        <v>4.9786628733997151</v>
       </c>
       <c r="F26" s="11">
-        <v>13.390313390313391</v>
+        <v>22.190611664295876</v>
       </c>
       <c r="G26" s="11">
-        <v>40.74074074074074</v>
+        <v>55.903271692745385</v>
       </c>
       <c r="H26" s="11">
-        <v>69.943019943019948</v>
+        <v>85.348506401137982</v>
       </c>
       <c r="I26" s="11">
-        <v>88.319088319088323</v>
+        <v>98.29302987197724</v>
       </c>
       <c r="J26" s="11">
-        <v>98.71794871794873</v>
+        <v>100</v>
       </c>
       <c r="K26" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="15">
@@ -1401,7 +1406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1412,31 +1417,31 @@
         <v>525</v>
       </c>
       <c r="D28" s="13">
-        <v>3.0698163957431879</v>
+        <v>3.0637254901960782</v>
       </c>
       <c r="E28" s="11">
-        <v>6.2857142857142865</v>
+        <v>10.285714285714285</v>
       </c>
       <c r="F28" s="11">
-        <v>25.142857142857146</v>
+        <v>33.523809523809526</v>
       </c>
       <c r="G28" s="11">
-        <v>49.523809523809526</v>
+        <v>61.904761904761905</v>
       </c>
       <c r="H28" s="11">
-        <v>74.285714285714292</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="I28" s="11">
-        <v>89.714285714285708</v>
+        <v>98.666666666666671</v>
       </c>
       <c r="J28" s="11">
-        <v>98.285714285714292</v>
+        <v>99.80952380952381</v>
       </c>
       <c r="K28" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="15">
@@ -1467,7 +1472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -1475,34 +1480,34 @@
         <v>23</v>
       </c>
       <c r="C30" s="9">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D30" s="13">
-        <v>4.0298213347346294</v>
+        <v>4.0245141415134533</v>
       </c>
       <c r="E30" s="11">
-        <v>4.4009779951100247</v>
+        <v>7.2475570032573291</v>
       </c>
       <c r="F30" s="11">
-        <v>18.418907905460472</v>
+        <v>27.035830618892508</v>
       </c>
       <c r="G30" s="11">
-        <v>44.498777506112468</v>
+        <v>58.469055374592841</v>
       </c>
       <c r="H30" s="11">
-        <v>71.801140994295025</v>
+        <v>85.912052117263855</v>
       </c>
       <c r="I30" s="11">
-        <v>88.916055419722909</v>
+        <v>98.45276872964169</v>
       </c>
       <c r="J30" s="11">
-        <v>98.53300733496333</v>
+        <v>99.918566775244301</v>
       </c>
       <c r="K30" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="15">
@@ -1533,7 +1538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="15"/>
@@ -1546,7 +1551,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="17"/>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
@@ -1557,31 +1562,31 @@
         <v>1026</v>
       </c>
       <c r="D33" s="13">
-        <v>7.6876966881462616</v>
+        <v>7.6698811392688944</v>
       </c>
       <c r="E33" s="11">
-        <v>13.255360623781677</v>
+        <v>22.124756335282651</v>
       </c>
       <c r="F33" s="11">
-        <v>38.304093567251464</v>
+        <v>50.097465886939574</v>
       </c>
       <c r="G33" s="11">
-        <v>60.136452241715396</v>
+        <v>73.879142300194928</v>
       </c>
       <c r="H33" s="11">
-        <v>80.50682261208577</v>
+        <v>92.007797270955166</v>
       </c>
       <c r="I33" s="11">
-        <v>93.567251461988292</v>
+        <v>98.538011695906434</v>
       </c>
       <c r="J33" s="11">
-        <v>98.830409356725141</v>
+        <v>99.902534113060426</v>
       </c>
       <c r="K33" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="15">
@@ -1612,7 +1617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
@@ -1620,34 +1625,34 @@
         <v>22</v>
       </c>
       <c r="C35" s="9">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D35" s="13">
-        <v>7.1044322301485208</v>
+        <v>7.0961718020541547</v>
       </c>
       <c r="E35" s="11">
-        <v>10.617283950617285</v>
+        <v>19.901315789473685</v>
       </c>
       <c r="F35" s="11">
-        <v>36.049382716049379</v>
+        <v>52.13815789473685</v>
       </c>
       <c r="G35" s="11">
-        <v>61.81069958847737</v>
+        <v>77.54934210526315</v>
       </c>
       <c r="H35" s="11">
-        <v>82.798353909465021</v>
+        <v>92.516447368421055</v>
       </c>
       <c r="I35" s="11">
-        <v>94.485596707818928</v>
+        <v>98.68421052631578</v>
       </c>
       <c r="J35" s="11">
-        <v>98.76543209876543</v>
+        <v>99.91776315789474</v>
       </c>
       <c r="K35" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="15">
@@ -1678,7 +1683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>21</v>
       </c>
@@ -1686,34 +1691,34 @@
         <v>23</v>
       </c>
       <c r="C37" s="9">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="D37" s="13">
-        <v>7.3600893326326853</v>
+        <v>7.3476878707436173</v>
       </c>
       <c r="E37" s="11">
-        <v>11.825078090138332</v>
+        <v>20.918822479928636</v>
       </c>
       <c r="F37" s="11">
-        <v>37.081659973226238</v>
+        <v>51.204281891168598</v>
       </c>
       <c r="G37" s="11">
-        <v>61.044176706827315</v>
+        <v>75.869759143621764</v>
       </c>
       <c r="H37" s="11">
-        <v>81.749219098616692</v>
+        <v>92.283675289919714</v>
       </c>
       <c r="I37" s="11">
-        <v>94.065149486836233</v>
+        <v>98.617305976806421</v>
       </c>
       <c r="J37" s="11">
-        <v>98.795180722891558</v>
+        <v>99.910793933987506</v>
       </c>
       <c r="K37" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="15">
@@ -1744,7 +1749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="15"/>
@@ -1757,7 +1762,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>27</v>
       </c>
@@ -1768,22 +1773,22 @@
         <v>18</v>
       </c>
       <c r="D40" s="13">
-        <v>0.13487187172186424</v>
+        <v>0.13455931823278763</v>
       </c>
       <c r="E40" s="11">
         <v>16.666666666666664</v>
       </c>
       <c r="F40" s="11">
-        <v>44.444444444444443</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="G40" s="11">
         <v>66.666666666666657</v>
       </c>
       <c r="H40" s="11">
-        <v>83.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="I40" s="11">
-        <v>94.444444444444443</v>
+        <v>100</v>
       </c>
       <c r="J40" s="11">
         <v>100</v>
@@ -1792,7 +1797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="15">
@@ -1823,7 +1828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>21</v>
       </c>
@@ -1834,22 +1839,22 @@
         <v>30</v>
       </c>
       <c r="D42" s="13">
-        <v>0.17541807975675361</v>
+        <v>0.1750700280112045</v>
       </c>
       <c r="E42" s="11">
-        <v>6.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="F42" s="11">
-        <v>30</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G42" s="11">
-        <v>56.666666666666664</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="H42" s="11">
-        <v>86.666666666666671</v>
+        <v>90</v>
       </c>
       <c r="I42" s="11">
-        <v>93.333333333333329</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="J42" s="11">
         <v>100</v>
@@ -1858,7 +1863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="15">
@@ -1889,7 +1894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>21</v>
       </c>
@@ -1900,22 +1905,22 @@
         <v>48</v>
       </c>
       <c r="D44" s="13">
-        <v>0.15764582238570679</v>
+        <v>0.1573099990168125</v>
       </c>
       <c r="E44" s="11">
-        <v>10.416666666666668</v>
+        <v>12.5</v>
       </c>
       <c r="F44" s="11">
-        <v>35.416666666666671</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="G44" s="11">
-        <v>60.416666666666664</v>
+        <v>64.583333333333343</v>
       </c>
       <c r="H44" s="11">
-        <v>85.416666666666657</v>
+        <v>93.75</v>
       </c>
       <c r="I44" s="11">
-        <v>93.75</v>
+        <v>97.916666666666657</v>
       </c>
       <c r="J44" s="11">
         <v>100</v>
@@ -1924,7 +1929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="15">
@@ -1955,7 +1960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="15"/>
@@ -1968,7 +1973,7 @@
       <c r="J46" s="16"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>28</v>
       </c>
@@ -2003,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="15">
@@ -2034,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>21</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="15">
@@ -2100,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="15">
@@ -2166,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="15"/>
@@ -2179,7 +2184,7 @@
       <c r="J53" s="16"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>29</v>
       </c>
@@ -2187,34 +2192,34 @@
         <v>20</v>
       </c>
       <c r="C54" s="9">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D54" s="13">
-        <v>2.8173235426344969</v>
+        <v>2.8182701652089408</v>
       </c>
       <c r="E54" s="11">
-        <v>6.9148936170212769</v>
+        <v>13.527851458885943</v>
       </c>
       <c r="F54" s="11">
-        <v>21.808510638297875</v>
+        <v>34.748010610079575</v>
       </c>
       <c r="G54" s="11">
-        <v>42.287234042553187</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="H54" s="11">
-        <v>64.893617021276597</v>
+        <v>88.594164456233429</v>
       </c>
       <c r="I54" s="11">
-        <v>86.170212765957444</v>
+        <v>97.877984084880637</v>
       </c>
       <c r="J54" s="11">
-        <v>96.542553191489361</v>
+        <v>100</v>
       </c>
       <c r="K54" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="15">
@@ -2245,7 +2250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>21</v>
       </c>
@@ -2256,31 +2261,31 @@
         <v>30</v>
       </c>
       <c r="D56" s="13">
-        <v>0.17541807975675361</v>
+        <v>0.1750700280112045</v>
       </c>
       <c r="E56" s="11">
-        <v>6.666666666666667</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="F56" s="11">
-        <v>26.666666666666668</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="G56" s="11">
-        <v>63.333333333333329</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="H56" s="11">
-        <v>86.666666666666671</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="I56" s="11">
-        <v>93.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="J56" s="11">
-        <v>96.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="K56" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="15">
@@ -2311,7 +2316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>21</v>
       </c>
@@ -2319,34 +2324,34 @@
         <v>23</v>
       </c>
       <c r="C58" s="9">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D58" s="13">
-        <v>1.3334209143457698</v>
+        <v>1.3338576999967227</v>
       </c>
       <c r="E58" s="11">
-        <v>6.8965517241379306</v>
+        <v>13.759213759213759</v>
       </c>
       <c r="F58" s="11">
-        <v>22.167487684729064</v>
+        <v>35.626535626535627</v>
       </c>
       <c r="G58" s="11">
-        <v>43.842364532019708</v>
+        <v>63.144963144963143</v>
       </c>
       <c r="H58" s="11">
-        <v>66.502463054187189</v>
+        <v>89.189189189189193</v>
       </c>
       <c r="I58" s="11">
-        <v>86.699507389162562</v>
+        <v>98.034398034398023</v>
       </c>
       <c r="J58" s="11">
-        <v>96.551724137931032</v>
+        <v>100</v>
       </c>
       <c r="K58" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="15">
@@ -2377,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2390,7 +2395,7 @@
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>30</v>
       </c>
@@ -2425,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="15">
@@ -2456,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>21</v>
       </c>
@@ -2491,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="15">
@@ -2522,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>21</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="15">
@@ -2588,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="15"/>
@@ -2601,7 +2606,7 @@
       <c r="J67" s="16"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>31</v>
       </c>
@@ -2612,31 +2617,31 @@
         <v>373</v>
       </c>
       <c r="D68" s="13">
-        <v>2.7948448973475197</v>
+        <v>2.7883680944905436</v>
       </c>
       <c r="E68" s="11">
-        <v>4.2895442359249332</v>
+        <v>6.4343163538873993</v>
       </c>
       <c r="F68" s="11">
-        <v>13.941018766756033</v>
+        <v>23.324396782841823</v>
       </c>
       <c r="G68" s="11">
-        <v>35.120643431635386</v>
+        <v>54.423592493297591</v>
       </c>
       <c r="H68" s="11">
-        <v>61.126005361930289</v>
+        <v>82.573726541554961</v>
       </c>
       <c r="I68" s="11">
-        <v>86.058981233243969</v>
+        <v>97.050938337801611</v>
       </c>
       <c r="J68" s="11">
-        <v>97.050938337801611</v>
+        <v>99.731903485254691</v>
       </c>
       <c r="K68" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="15">
@@ -2667,7 +2672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
@@ -2678,31 +2683,31 @@
         <v>209</v>
       </c>
       <c r="D70" s="13">
-        <v>1.22207928897205</v>
+        <v>1.219654528478058</v>
       </c>
       <c r="E70" s="11">
-        <v>8.133971291866029</v>
+        <v>13.397129186602871</v>
       </c>
       <c r="F70" s="11">
-        <v>28.229665071770331</v>
+        <v>41.626794258373209</v>
       </c>
       <c r="G70" s="11">
-        <v>53.588516746411486</v>
+        <v>75.119617224880386</v>
       </c>
       <c r="H70" s="11">
-        <v>78.4688995215311</v>
+        <v>91.866028708133967</v>
       </c>
       <c r="I70" s="11">
-        <v>91.866028708133967</v>
+        <v>99.043062200956939</v>
       </c>
       <c r="J70" s="11">
-        <v>98.564593301435409</v>
+        <v>100</v>
       </c>
       <c r="K70" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="15">
@@ -2733,7 +2738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>21</v>
       </c>
@@ -2744,31 +2749,31 @@
         <v>582</v>
       </c>
       <c r="D72" s="13">
-        <v>1.9114555964266946</v>
+        <v>1.9073837380788514</v>
       </c>
       <c r="E72" s="11">
-        <v>5.6701030927835054</v>
+        <v>8.934707903780069</v>
       </c>
       <c r="F72" s="11">
-        <v>19.072164948453608</v>
+        <v>29.896907216494846</v>
       </c>
       <c r="G72" s="11">
-        <v>41.75257731958763</v>
+        <v>61.855670103092784</v>
       </c>
       <c r="H72" s="11">
-        <v>67.353951890034367</v>
+        <v>85.910652920962193</v>
       </c>
       <c r="I72" s="11">
-        <v>88.144329896907209</v>
+        <v>97.766323024054984</v>
       </c>
       <c r="J72" s="11">
-        <v>97.594501718213053</v>
+        <v>99.828178694158083</v>
       </c>
       <c r="K72" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="15">
@@ -2799,7 +2804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="15"/>
@@ -2812,7 +2817,7 @@
       <c r="J74" s="16"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>32</v>
       </c>
@@ -2820,34 +2825,34 @@
         <v>20</v>
       </c>
       <c r="C75" s="9">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D75" s="13">
-        <v>1.0789749737749139</v>
+        <v>1.0914255812214997</v>
       </c>
       <c r="E75" s="11">
-        <v>3.4722222222222223</v>
+        <v>4.10958904109589</v>
       </c>
       <c r="F75" s="11">
-        <v>15.277777777777779</v>
+        <v>27.397260273972602</v>
       </c>
       <c r="G75" s="11">
-        <v>43.055555555555557</v>
+        <v>62.328767123287676</v>
       </c>
       <c r="H75" s="11">
-        <v>82.638888888888886</v>
+        <v>93.835616438356169</v>
       </c>
       <c r="I75" s="11">
-        <v>98.611111111111114</v>
+        <v>99.315068493150676</v>
       </c>
       <c r="J75" s="11">
-        <v>99.305555555555557</v>
+        <v>100</v>
       </c>
       <c r="K75" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="15">
@@ -2878,7 +2883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>21</v>
       </c>
@@ -2886,34 +2891,34 @@
         <v>22</v>
       </c>
       <c r="C77" s="9">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D77" s="13">
-        <v>2.1634896503332941</v>
+        <v>2.1650326797385619</v>
       </c>
       <c r="E77" s="11">
-        <v>5.9459459459459465</v>
+        <v>10.781671159029651</v>
       </c>
       <c r="F77" s="11">
-        <v>23.783783783783786</v>
+        <v>43.39622641509434</v>
       </c>
       <c r="G77" s="11">
-        <v>59.729729729729733</v>
+        <v>77.358490566037744</v>
       </c>
       <c r="H77" s="11">
-        <v>90.540540540540533</v>
+        <v>97.304582210242586</v>
       </c>
       <c r="I77" s="11">
-        <v>98.918918918918919</v>
+        <v>99.73045822102425</v>
       </c>
       <c r="J77" s="11">
-        <v>99.729729729729726</v>
+        <v>100</v>
       </c>
       <c r="K77" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="15">
@@ -2944,7 +2949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>21</v>
       </c>
@@ -2952,34 +2957,34 @@
         <v>23</v>
       </c>
       <c r="C79" s="9">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D79" s="13">
-        <v>1.6881240147136101</v>
+        <v>1.6943597810769178</v>
       </c>
       <c r="E79" s="11">
-        <v>5.2529182879377432</v>
+        <v>8.8974854932301746</v>
       </c>
       <c r="F79" s="11">
-        <v>21.40077821011673</v>
+        <v>38.878143133462281</v>
       </c>
       <c r="G79" s="11">
-        <v>55.058365758754867</v>
+        <v>73.114119922630564</v>
       </c>
       <c r="H79" s="11">
-        <v>88.326848249027236</v>
+        <v>96.32495164410058</v>
       </c>
       <c r="I79" s="11">
-        <v>98.832684824902728</v>
+        <v>99.613152804642169</v>
       </c>
       <c r="J79" s="11">
-        <v>99.610894941634243</v>
+        <v>100</v>
       </c>
       <c r="K79" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="15">
@@ -3010,7 +3015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="15"/>
@@ -3023,7 +3028,7 @@
       <c r="J81" s="16"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>33</v>
       </c>
@@ -3034,31 +3039,31 @@
         <v>362</v>
       </c>
       <c r="D82" s="13">
-        <v>2.712423197961936</v>
+        <v>2.706137400014951</v>
       </c>
       <c r="E82" s="11">
-        <v>9.94475138121547</v>
+        <v>16.574585635359114</v>
       </c>
       <c r="F82" s="11">
-        <v>39.502762430939228</v>
+        <v>45.303867403314918</v>
       </c>
       <c r="G82" s="11">
-        <v>60.22099447513812</v>
+        <v>72.375690607734811</v>
       </c>
       <c r="H82" s="11">
-        <v>82.872928176795583</v>
+        <v>91.160220994475139</v>
       </c>
       <c r="I82" s="11">
-        <v>95.856353591160229</v>
+        <v>98.342541436464089</v>
       </c>
       <c r="J82" s="11">
-        <v>99.447513812154696</v>
+        <v>100</v>
       </c>
       <c r="K82" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="15">
@@ -3089,7 +3094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>21</v>
       </c>
@@ -3100,22 +3105,22 @@
         <v>161</v>
       </c>
       <c r="D84" s="13">
-        <v>0.94141036136124423</v>
+        <v>0.93954248366013071</v>
       </c>
       <c r="E84" s="11">
-        <v>16.770186335403729</v>
+        <v>26.086956521739129</v>
       </c>
       <c r="F84" s="11">
-        <v>44.099378881987576</v>
+        <v>50.931677018633536</v>
       </c>
       <c r="G84" s="11">
-        <v>66.459627329192557</v>
+        <v>80.124223602484463</v>
       </c>
       <c r="H84" s="11">
-        <v>84.472049689440993</v>
+        <v>94.409937888198755</v>
       </c>
       <c r="I84" s="11">
-        <v>95.652173913043484</v>
+        <v>99.378881987577643</v>
       </c>
       <c r="J84" s="11">
         <v>99.378881987577643</v>
@@ -3124,7 +3129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="15">
@@ -3155,7 +3160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>21</v>
       </c>
@@ -3166,31 +3171,31 @@
         <v>523</v>
       </c>
       <c r="D86" s="13">
-        <v>1.7176826064109301</v>
+        <v>1.7140235309540195</v>
       </c>
       <c r="E86" s="11">
-        <v>12.045889101338432</v>
+        <v>19.502868068833649</v>
       </c>
       <c r="F86" s="11">
-        <v>40.917782026768641</v>
+        <v>47.036328871892927</v>
       </c>
       <c r="G86" s="11">
-        <v>62.141491395793501</v>
+        <v>74.760994263862329</v>
       </c>
       <c r="H86" s="11">
-        <v>83.365200764818354</v>
+        <v>92.160611854684518</v>
       </c>
       <c r="I86" s="11">
-        <v>95.793499043977064</v>
+        <v>98.661567877629068</v>
       </c>
       <c r="J86" s="11">
-        <v>99.426386233269596</v>
+        <v>99.808795411089875</v>
       </c>
       <c r="K86" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="15">
@@ -3221,7 +3226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="15"/>
@@ -3234,7 +3239,7 @@
       <c r="J88" s="16"/>
       <c r="K88" s="17"/>
     </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>34</v>
       </c>
@@ -3245,31 +3250,31 @@
         <v>90</v>
       </c>
       <c r="D89" s="13">
-        <v>0.67435935860932117</v>
+        <v>0.67279659116393808</v>
       </c>
       <c r="E89" s="11">
         <v>3.3333333333333335</v>
       </c>
       <c r="F89" s="11">
-        <v>10</v>
+        <v>18.888888888888889</v>
       </c>
       <c r="G89" s="11">
-        <v>34.444444444444443</v>
+        <v>54.444444444444443</v>
       </c>
       <c r="H89" s="11">
-        <v>71.111111111111114</v>
+        <v>90</v>
       </c>
       <c r="I89" s="11">
-        <v>94.444444444444443</v>
+        <v>100</v>
       </c>
       <c r="J89" s="11">
-        <v>98.888888888888886</v>
+        <v>100</v>
       </c>
       <c r="K89" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="15">
@@ -3300,7 +3305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>21</v>
       </c>
@@ -3311,22 +3316,22 @@
         <v>170</v>
       </c>
       <c r="D91" s="13">
-        <v>0.99403578528827041</v>
+        <v>0.99206349206349198</v>
       </c>
       <c r="E91" s="11">
-        <v>5.8823529411764701</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="F91" s="11">
-        <v>15.882352941176469</v>
+        <v>27.647058823529413</v>
       </c>
       <c r="G91" s="11">
-        <v>39.411764705882355</v>
+        <v>63.529411764705877</v>
       </c>
       <c r="H91" s="11">
-        <v>77.058823529411768</v>
+        <v>92.352941176470594</v>
       </c>
       <c r="I91" s="11">
-        <v>95.294117647058812</v>
+        <v>100</v>
       </c>
       <c r="J91" s="11">
         <v>100</v>
@@ -3335,7 +3340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="15">
@@ -3366,7 +3371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>21</v>
       </c>
@@ -3377,31 +3382,31 @@
         <v>260</v>
       </c>
       <c r="D93" s="13">
-        <v>0.8539148712559117</v>
+        <v>0.85209582800773431</v>
       </c>
       <c r="E93" s="11">
-        <v>5</v>
+        <v>6.5384615384615392</v>
       </c>
       <c r="F93" s="11">
-        <v>13.846153846153847</v>
+        <v>24.615384615384617</v>
       </c>
       <c r="G93" s="11">
-        <v>37.692307692307693</v>
+        <v>60.38461538461538</v>
       </c>
       <c r="H93" s="11">
-        <v>75</v>
+        <v>91.538461538461533</v>
       </c>
       <c r="I93" s="11">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J93" s="11">
-        <v>99.615384615384613</v>
+        <v>100</v>
       </c>
       <c r="K93" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="15">
@@ -3432,7 +3437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="15"/>
@@ -3445,7 +3450,7 @@
       <c r="J95" s="16"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>35</v>
       </c>
@@ -3456,31 +3461,31 @@
         <v>304</v>
       </c>
       <c r="D96" s="13">
-        <v>2.2778360557470405</v>
+        <v>2.2725573745981911</v>
       </c>
       <c r="E96" s="11">
-        <v>8.2236842105263168</v>
+        <v>11.842105263157894</v>
       </c>
       <c r="F96" s="11">
-        <v>20.723684210526315</v>
+        <v>30.592105263157894</v>
       </c>
       <c r="G96" s="11">
-        <v>45.723684210526315</v>
+        <v>62.171052631578952</v>
       </c>
       <c r="H96" s="11">
-        <v>74.671052631578945</v>
+        <v>90.131578947368425</v>
       </c>
       <c r="I96" s="11">
-        <v>96.381578947368425</v>
+        <v>98.68421052631578</v>
       </c>
       <c r="J96" s="11">
-        <v>99.342105263157904</v>
+        <v>100</v>
       </c>
       <c r="K96" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="15">
@@ -3511,7 +3516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>21</v>
       </c>
@@ -3522,31 +3527,31 @@
         <v>1179</v>
       </c>
       <c r="D98" s="13">
-        <v>6.8939305344404165</v>
+        <v>6.8802521008403366</v>
       </c>
       <c r="E98" s="11">
-        <v>8.1424936386768447</v>
+        <v>12.892281594571669</v>
       </c>
       <c r="F98" s="11">
-        <v>24.427480916030532</v>
+        <v>37.404580152671755</v>
       </c>
       <c r="G98" s="11">
-        <v>54.877014418999146</v>
+        <v>70.229007633587784</v>
       </c>
       <c r="H98" s="11">
-        <v>81.170483460559794</v>
+        <v>93.044953350296865</v>
       </c>
       <c r="I98" s="11">
-        <v>96.946564885496173</v>
+        <v>99.151823579304505</v>
       </c>
       <c r="J98" s="11">
-        <v>99.575911789652253</v>
+        <v>100</v>
       </c>
       <c r="K98" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="15">
@@ -3577,7 +3582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>21</v>
       </c>
@@ -3588,31 +3593,31 @@
         <v>1483</v>
       </c>
       <c r="D100" s="13">
-        <v>4.8705990541250657</v>
+        <v>4.8602235112902692</v>
       </c>
       <c r="E100" s="11">
-        <v>8.15913688469319</v>
+        <v>12.6770060687795</v>
       </c>
       <c r="F100" s="11">
-        <v>23.668240053944707</v>
+        <v>36.008091706001352</v>
       </c>
       <c r="G100" s="11">
-        <v>53.000674308833453</v>
+        <v>68.577208361429527</v>
       </c>
       <c r="H100" s="11">
-        <v>79.838165879973033</v>
+        <v>92.447741065407968</v>
       </c>
       <c r="I100" s="11">
-        <v>96.830748482805134</v>
+        <v>99.055967633175996</v>
       </c>
       <c r="J100" s="11">
-        <v>99.527983816587991</v>
+        <v>100</v>
       </c>
       <c r="K100" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="15">
@@ -3643,7 +3648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="15"/>
@@ -3656,7 +3661,7 @@
       <c r="J102" s="16"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>36</v>
       </c>
@@ -3667,31 +3672,31 @@
         <v>142</v>
       </c>
       <c r="D103" s="13">
-        <v>1.0639892102502622</v>
+        <v>1.0615235105031022</v>
       </c>
       <c r="E103" s="11">
-        <v>4.225352112676056</v>
+        <v>7.7464788732394361</v>
       </c>
       <c r="F103" s="11">
-        <v>13.380281690140844</v>
+        <v>24.647887323943664</v>
       </c>
       <c r="G103" s="11">
-        <v>40.845070422535215</v>
+        <v>65.492957746478879</v>
       </c>
       <c r="H103" s="11">
-        <v>82.394366197183103</v>
+        <v>92.25352112676056</v>
       </c>
       <c r="I103" s="11">
-        <v>94.366197183098592</v>
+        <v>99.295774647887328</v>
       </c>
       <c r="J103" s="11">
-        <v>99.295774647887328</v>
+        <v>100</v>
       </c>
       <c r="K103" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="15">
@@ -3722,7 +3727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>21</v>
       </c>
@@ -3730,34 +3735,34 @@
         <v>22</v>
       </c>
       <c r="C105" s="9">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D105" s="13">
-        <v>2.830078353408958</v>
+        <v>2.8302987861811393</v>
       </c>
       <c r="E105" s="11">
-        <v>5.785123966942149</v>
+        <v>9.072164948453608</v>
       </c>
       <c r="F105" s="11">
-        <v>20.24793388429752</v>
+        <v>35.876288659793815</v>
       </c>
       <c r="G105" s="11">
-        <v>48.140495867768593</v>
+        <v>62.47422680412371</v>
       </c>
       <c r="H105" s="11">
-        <v>78.512396694214885</v>
+        <v>92.371134020618555</v>
       </c>
       <c r="I105" s="11">
-        <v>96.280991735537185</v>
+        <v>98.762886597938149</v>
       </c>
       <c r="J105" s="11">
-        <v>99.793388429752056</v>
+        <v>100</v>
       </c>
       <c r="K105" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="15">
@@ -3788,7 +3793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>21</v>
       </c>
@@ -3796,34 +3801,34 @@
         <v>23</v>
       </c>
       <c r="C107" s="9">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D107" s="13">
-        <v>2.0559642669469262</v>
+        <v>2.0548618621571131</v>
       </c>
       <c r="E107" s="11">
-        <v>5.4313099041533546</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="F107" s="11">
-        <v>18.69009584664537</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G107" s="11">
-        <v>46.485623003194888</v>
+        <v>63.157894736842103</v>
       </c>
       <c r="H107" s="11">
-        <v>79.392971246006397</v>
+        <v>92.344497607655512</v>
       </c>
       <c r="I107" s="11">
-        <v>95.846645367412137</v>
+        <v>98.883572567783091</v>
       </c>
       <c r="J107" s="11">
-        <v>99.680511182108617</v>
+        <v>100</v>
       </c>
       <c r="K107" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="15">
@@ -3854,7 +3859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -3867,7 +3872,7 @@
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
     </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>37</v>
       </c>
@@ -3875,25 +3880,25 @@
         <v>20</v>
       </c>
       <c r="C110" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D110" s="13">
-        <v>0.61441630451071483</v>
+        <v>0.62046796740674293</v>
       </c>
       <c r="E110" s="11">
-        <v>21.951219512195124</v>
+        <v>31.325301204819279</v>
       </c>
       <c r="F110" s="11">
-        <v>54.878048780487809</v>
+        <v>68.674698795180717</v>
       </c>
       <c r="G110" s="11">
-        <v>73.170731707317074</v>
+        <v>83.132530120481931</v>
       </c>
       <c r="H110" s="11">
-        <v>82.926829268292678</v>
+        <v>95.180722891566262</v>
       </c>
       <c r="I110" s="11">
-        <v>97.560975609756099</v>
+        <v>100</v>
       </c>
       <c r="J110" s="11">
         <v>100</v>
@@ -3902,7 +3907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="15">
@@ -3933,7 +3938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>21</v>
       </c>
@@ -3941,34 +3946,34 @@
         <v>22</v>
       </c>
       <c r="C112" s="9">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D112" s="13">
-        <v>1.2279265582972752</v>
+        <v>1.2371615312791784</v>
       </c>
       <c r="E112" s="11">
-        <v>15.714285714285714</v>
+        <v>23.584905660377359</v>
       </c>
       <c r="F112" s="11">
-        <v>44.285714285714285</v>
+        <v>60.84905660377359</v>
       </c>
       <c r="G112" s="11">
-        <v>76.19047619047619</v>
+        <v>87.264150943396217</v>
       </c>
       <c r="H112" s="11">
-        <v>90.476190476190482</v>
+        <v>95.283018867924525</v>
       </c>
       <c r="I112" s="11">
-        <v>98.095238095238088</v>
+        <v>99.528301886792448</v>
       </c>
       <c r="J112" s="11">
-        <v>99.523809523809518</v>
+        <v>100</v>
       </c>
       <c r="K112" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="15">
@@ -3999,7 +4004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>21</v>
       </c>
@@ -4007,34 +4012,34 @@
         <v>23</v>
       </c>
       <c r="C114" s="9">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D114" s="13">
-        <v>0.95901208617971623</v>
+        <v>0.9668010356241602</v>
       </c>
       <c r="E114" s="11">
-        <v>17.465753424657535</v>
+        <v>25.762711864406779</v>
       </c>
       <c r="F114" s="11">
-        <v>47.260273972602739</v>
+        <v>63.050847457627121</v>
       </c>
       <c r="G114" s="11">
-        <v>75.342465753424662</v>
+        <v>86.101694915254228</v>
       </c>
       <c r="H114" s="11">
-        <v>88.356164383561648</v>
+        <v>95.254237288135585</v>
       </c>
       <c r="I114" s="11">
-        <v>97.945205479452056</v>
+        <v>99.661016949152554</v>
       </c>
       <c r="J114" s="11">
-        <v>99.657534246575338</v>
+        <v>100</v>
       </c>
       <c r="K114" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="15">
@@ -4065,7 +4070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="15"/>
@@ -4078,7 +4083,7 @@
       <c r="J116" s="16"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>38</v>
       </c>
@@ -4113,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="15">
@@ -4144,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="15">
@@ -4210,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>21</v>
       </c>
@@ -4245,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="15">
@@ -4276,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="15"/>
@@ -4289,7 +4294,7 @@
       <c r="J123" s="16"/>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>39</v>
       </c>
@@ -4300,31 +4305,31 @@
         <v>599</v>
       </c>
       <c r="D124" s="13">
-        <v>4.4882361756331486</v>
+        <v>4.4778350900799877</v>
       </c>
       <c r="E124" s="11">
-        <v>6.010016694490818</v>
+        <v>9.5158597662771278</v>
       </c>
       <c r="F124" s="11">
-        <v>22.203672787979968</v>
+        <v>33.222036727879797</v>
       </c>
       <c r="G124" s="11">
-        <v>47.746243739565941</v>
+        <v>65.442404006677805</v>
       </c>
       <c r="H124" s="11">
-        <v>77.128547579298839</v>
+        <v>88.647746243739562</v>
       </c>
       <c r="I124" s="11">
-        <v>92.320534223706176</v>
+        <v>98.497495826377289</v>
       </c>
       <c r="J124" s="11">
-        <v>98.664440734557601</v>
+        <v>100</v>
       </c>
       <c r="K124" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="15">
@@ -4355,7 +4360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>21</v>
       </c>
@@ -4366,31 +4371,31 @@
         <v>569</v>
       </c>
       <c r="D126" s="13">
-        <v>3.3270962460530935</v>
+        <v>3.3204948646125119</v>
       </c>
       <c r="E126" s="11">
-        <v>11.072056239015819</v>
+        <v>17.04745166959578</v>
       </c>
       <c r="F126" s="11">
-        <v>34.270650263620389</v>
+        <v>50.087873462214418</v>
       </c>
       <c r="G126" s="11">
-        <v>65.026362038664317</v>
+        <v>78.031634446397192</v>
       </c>
       <c r="H126" s="11">
-        <v>86.994727592267139</v>
+        <v>95.254833040421801</v>
       </c>
       <c r="I126" s="11">
-        <v>97.188049209138839</v>
+        <v>99.297012302284713</v>
       </c>
       <c r="J126" s="11">
-        <v>99.472759226713535</v>
+        <v>100</v>
       </c>
       <c r="K126" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="15">
@@ -4421,7 +4426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>21</v>
       </c>
@@ -4432,31 +4437,31 @@
         <v>1168</v>
       </c>
       <c r="D128" s="13">
-        <v>3.8360483447188649</v>
+        <v>3.8278766427424378</v>
       </c>
       <c r="E128" s="11">
-        <v>8.4760273972602747</v>
+        <v>13.184931506849315</v>
       </c>
       <c r="F128" s="11">
-        <v>28.082191780821919</v>
+        <v>41.438356164383563</v>
       </c>
       <c r="G128" s="11">
-        <v>56.164383561643838</v>
+        <v>71.575342465753423</v>
       </c>
       <c r="H128" s="11">
-        <v>81.934931506849324</v>
+        <v>91.86643835616438</v>
       </c>
       <c r="I128" s="11">
-        <v>94.691780821917803</v>
+        <v>98.886986301369859</v>
       </c>
       <c r="J128" s="11">
-        <v>99.058219178082197</v>
+        <v>100</v>
       </c>
       <c r="K128" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="15">
@@ -4487,7 +4492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="15"/>
@@ -4500,7 +4505,7 @@
       <c r="J130" s="16"/>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>40</v>
       </c>
@@ -4511,19 +4516,19 @@
         <v>24</v>
       </c>
       <c r="D131" s="13">
-        <v>0.17982916229581897</v>
+        <v>0.17941242431038351</v>
       </c>
       <c r="E131" s="11">
         <v>33.333333333333329</v>
       </c>
       <c r="F131" s="11">
-        <v>50</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="G131" s="11">
-        <v>79.166666666666657</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="H131" s="11">
-        <v>91.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="I131" s="11">
         <v>100</v>
@@ -4535,7 +4540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="15">
@@ -4566,7 +4571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>21</v>
       </c>
@@ -4574,22 +4579,22 @@
         <v>22</v>
       </c>
       <c r="C133" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D133" s="13">
-        <v>0.28066892761080575</v>
+        <v>0.28594771241830064</v>
       </c>
       <c r="E133" s="11">
-        <v>22.916666666666664</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="F133" s="11">
-        <v>54.166666666666664</v>
+        <v>61.224489795918366</v>
       </c>
       <c r="G133" s="11">
-        <v>81.25</v>
+        <v>83.673469387755105</v>
       </c>
       <c r="H133" s="11">
-        <v>89.583333333333343</v>
+        <v>89.795918367346943</v>
       </c>
       <c r="I133" s="11">
         <v>100</v>
@@ -4601,7 +4606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="15">
@@ -4632,7 +4637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>21</v>
       </c>
@@ -4640,22 +4645,22 @@
         <v>23</v>
       </c>
       <c r="C135" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D135" s="13">
-        <v>0.23646873357856019</v>
+        <v>0.23924229017140236</v>
       </c>
       <c r="E135" s="11">
-        <v>26.388888888888889</v>
+        <v>30.136986301369863</v>
       </c>
       <c r="F135" s="11">
-        <v>52.777777777777779</v>
+        <v>60.273972602739725</v>
       </c>
       <c r="G135" s="11">
-        <v>80.555555555555557</v>
+        <v>83.561643835616437</v>
       </c>
       <c r="H135" s="11">
-        <v>90.277777777777786</v>
+        <v>93.150684931506845</v>
       </c>
       <c r="I135" s="11">
         <v>100</v>
@@ -4667,7 +4672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="15">
@@ -4698,7 +4703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="15"/>
@@ -4711,7 +4716,7 @@
       <c r="J137" s="16"/>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>41</v>
       </c>
@@ -4719,34 +4724,34 @@
         <v>20</v>
       </c>
       <c r="C138" s="9">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="D138" s="13">
-        <v>7.0657875018732206</v>
+        <v>7.094266277939747</v>
       </c>
       <c r="E138" s="11">
-        <v>4.2417815482502652</v>
+        <v>11.064278187565858</v>
       </c>
       <c r="F138" s="11">
-        <v>20.360551431601273</v>
+        <v>35.827186512118018</v>
       </c>
       <c r="G138" s="11">
-        <v>57.68822905620361</v>
+        <v>70.495258166491055</v>
       </c>
       <c r="H138" s="11">
-        <v>87.59278897136798</v>
+        <v>93.78292939936776</v>
       </c>
       <c r="I138" s="11">
-        <v>97.348886532343585</v>
+        <v>99.262381454162281</v>
       </c>
       <c r="J138" s="11">
-        <v>99.151643690349943</v>
+        <v>99.894625922023181</v>
       </c>
       <c r="K138" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="15">
@@ -4777,7 +4782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>21</v>
       </c>
@@ -4785,34 +4790,34 @@
         <v>22</v>
       </c>
       <c r="C140" s="9">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="D140" s="13">
-        <v>6.7828324172611394</v>
+        <v>6.7985527544351072</v>
       </c>
       <c r="E140" s="11">
-        <v>6.2931034482758621</v>
+        <v>13.133047210300431</v>
       </c>
       <c r="F140" s="11">
-        <v>24.482758620689655</v>
+        <v>44.034334763948493</v>
       </c>
       <c r="G140" s="11">
-        <v>65.689655172413794</v>
+        <v>77.85407725321889</v>
       </c>
       <c r="H140" s="11">
-        <v>92.068965517241381</v>
+        <v>96.223175965665234</v>
       </c>
       <c r="I140" s="11">
-        <v>97.84482758620689</v>
+        <v>99.141630901287556</v>
       </c>
       <c r="J140" s="11">
-        <v>99.482758620689665</v>
+        <v>99.828326180257505</v>
       </c>
       <c r="K140" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="15">
@@ -4843,7 +4848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>21</v>
       </c>
@@ -4851,34 +4856,34 @@
         <v>23</v>
       </c>
       <c r="C142" s="9">
-        <v>2103</v>
+        <v>2114</v>
       </c>
       <c r="D142" s="13">
-        <v>6.9068575932737781</v>
+        <v>6.9281945400321181</v>
       </c>
       <c r="E142" s="11">
-        <v>5.3732762719923919</v>
+        <v>12.204351939451277</v>
       </c>
       <c r="F142" s="11">
-        <v>22.634331906799808</v>
+        <v>40.350047303689692</v>
       </c>
       <c r="G142" s="11">
-        <v>62.101759391345702</v>
+        <v>74.55061494796594</v>
       </c>
       <c r="H142" s="11">
-        <v>90.061816452686642</v>
+        <v>95.127719962157059</v>
       </c>
       <c r="I142" s="11">
-        <v>97.622444127436992</v>
+        <v>99.195837275307468</v>
       </c>
       <c r="J142" s="11">
-        <v>99.334284355682357</v>
+        <v>99.858088930936617</v>
       </c>
       <c r="K142" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="15">
@@ -4909,7 +4914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="15"/>
@@ -4922,7 +4927,7 @@
       <c r="J144" s="16"/>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>42</v>
       </c>
@@ -4933,31 +4938,31 @@
         <v>300</v>
       </c>
       <c r="D145" s="13">
-        <v>2.247864528697737</v>
+        <v>2.2426553038797934</v>
       </c>
       <c r="E145" s="11">
-        <v>1.3333333333333335</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F145" s="11">
-        <v>9</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="G145" s="11">
-        <v>25</v>
+        <v>46.333333333333329</v>
       </c>
       <c r="H145" s="11">
-        <v>51</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="I145" s="11">
-        <v>83.666666666666671</v>
+        <v>95.666666666666671</v>
       </c>
       <c r="J145" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K145" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="15">
@@ -4988,7 +4993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>21</v>
       </c>
@@ -4996,34 +5001,34 @@
         <v>22</v>
       </c>
       <c r="C147" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D147" s="13">
-        <v>0.94141036136124423</v>
+        <v>0.94537815126050417</v>
       </c>
       <c r="E147" s="11">
-        <v>4.3478260869565215</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="F147" s="11">
-        <v>14.906832298136646</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="G147" s="11">
-        <v>40.993788819875775</v>
+        <v>62.345679012345677</v>
       </c>
       <c r="H147" s="11">
-        <v>66.459627329192557</v>
+        <v>90.123456790123456</v>
       </c>
       <c r="I147" s="11">
-        <v>91.304347826086953</v>
+        <v>96.913580246913583</v>
       </c>
       <c r="J147" s="11">
-        <v>97.515527950310556</v>
+        <v>100</v>
       </c>
       <c r="K147" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="15">
@@ -5054,7 +5059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>21</v>
       </c>
@@ -5062,34 +5067,34 @@
         <v>23</v>
       </c>
       <c r="C149" s="9">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D149" s="13">
-        <v>1.5140567524960589</v>
+        <v>1.5141087405368203</v>
       </c>
       <c r="E149" s="11">
-        <v>2.3861171366594358</v>
+        <v>4.329004329004329</v>
       </c>
       <c r="F149" s="11">
-        <v>11.062906724511931</v>
+        <v>20.346320346320347</v>
       </c>
       <c r="G149" s="11">
-        <v>30.585683297180044</v>
+        <v>51.94805194805194</v>
       </c>
       <c r="H149" s="11">
-        <v>56.399132321041215</v>
+        <v>81.385281385281388</v>
       </c>
       <c r="I149" s="11">
-        <v>86.334056399132322</v>
+        <v>96.103896103896105</v>
       </c>
       <c r="J149" s="11">
-        <v>97.180043383947933</v>
+        <v>100</v>
       </c>
       <c r="K149" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="15">
@@ -5120,7 +5125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="15"/>
@@ -5133,7 +5138,7 @@
       <c r="J151" s="16"/>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>43</v>
       </c>
@@ -5168,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="15">
@@ -5199,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>21</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="15">
@@ -5265,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>21</v>
       </c>
@@ -5300,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="15">
@@ -5331,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -5344,7 +5349,7 @@
       <c r="J158" s="18"/>
       <c r="K158" s="18"/>
     </row>
-    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>44</v>
       </c>
@@ -5352,34 +5357,34 @@
         <v>20</v>
       </c>
       <c r="C159" s="9">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D159" s="13">
-        <v>1.3487187172186423</v>
+        <v>1.3605442176870748</v>
       </c>
       <c r="E159" s="11">
-        <v>6.666666666666667</v>
+        <v>8.791208791208792</v>
       </c>
       <c r="F159" s="11">
-        <v>21.111111111111111</v>
+        <v>29.670329670329672</v>
       </c>
       <c r="G159" s="11">
-        <v>43.888888888888886</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="H159" s="11">
-        <v>70.555555555555557</v>
+        <v>87.912087912087912</v>
       </c>
       <c r="I159" s="11">
-        <v>88.888888888888886</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="J159" s="11">
-        <v>96.111111111111114</v>
+        <v>98.901098901098905</v>
       </c>
       <c r="K159" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="15">
@@ -5410,7 +5415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>21</v>
       </c>
@@ -5418,34 +5423,34 @@
         <v>22</v>
       </c>
       <c r="C161" s="9">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D161" s="13">
-        <v>2.4324640392936496</v>
+        <v>2.4334733893557425</v>
       </c>
       <c r="E161" s="11">
-        <v>7.4519230769230766</v>
+        <v>13.429256594724221</v>
       </c>
       <c r="F161" s="11">
-        <v>26.442307692307693</v>
+        <v>34.532374100719423</v>
       </c>
       <c r="G161" s="11">
-        <v>52.644230769230774</v>
+        <v>68.105515587529979</v>
       </c>
       <c r="H161" s="11">
-        <v>75</v>
+        <v>89.68824940047962</v>
       </c>
       <c r="I161" s="11">
-        <v>91.586538461538453</v>
+        <v>97.841726618705039</v>
       </c>
       <c r="J161" s="11">
-        <v>97.59615384615384</v>
+        <v>100</v>
       </c>
       <c r="K161" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="15">
@@ -5476,7 +5481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>21</v>
       </c>
@@ -5484,34 +5489,34 @@
         <v>23</v>
       </c>
       <c r="C163" s="9">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D163" s="13">
-        <v>1.9574356279558593</v>
+        <v>1.963097696063973</v>
       </c>
       <c r="E163" s="11">
-        <v>7.2147651006711415</v>
+        <v>12.020033388981636</v>
       </c>
       <c r="F163" s="11">
-        <v>24.832214765100673</v>
+        <v>33.055091819699499</v>
       </c>
       <c r="G163" s="11">
-        <v>50</v>
+        <v>66.110183639398997</v>
       </c>
       <c r="H163" s="11">
-        <v>73.65771812080537</v>
+        <v>89.14858096828047</v>
       </c>
       <c r="I163" s="11">
-        <v>90.771812080536918</v>
+        <v>97.328881469115188</v>
       </c>
       <c r="J163" s="11">
-        <v>97.147651006711413</v>
+        <v>99.666110183639404</v>
       </c>
       <c r="K163" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="15">
@@ -5542,7 +5547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="15"/>
@@ -5555,7 +5560,7 @@
       <c r="J165" s="16"/>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>45</v>
       </c>
@@ -5563,34 +5568,34 @@
         <v>20</v>
       </c>
       <c r="C166" s="9">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="D166" s="13">
-        <v>16.259553424246963</v>
+        <v>16.251775435448902</v>
       </c>
       <c r="E166" s="11">
-        <v>23.364055299539171</v>
+        <v>30.63477460901564</v>
       </c>
       <c r="F166" s="11">
-        <v>47.603686635944705</v>
+        <v>58.509659613615447</v>
       </c>
       <c r="G166" s="11">
-        <v>65.115207373271886</v>
+        <v>79.070837166513343</v>
       </c>
       <c r="H166" s="11">
-        <v>80.460829493087559</v>
+        <v>92.68629254829807</v>
       </c>
       <c r="I166" s="11">
-        <v>91.658986175115203</v>
+        <v>98.436062557497706</v>
       </c>
       <c r="J166" s="11">
-        <v>98.294930875576043</v>
+        <v>99.816007359705623</v>
       </c>
       <c r="K166" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="15">
@@ -5621,7 +5626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>21</v>
       </c>
@@ -5629,34 +5634,34 @@
         <v>22</v>
       </c>
       <c r="C168" s="9">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="D168" s="13">
-        <v>8.9697111448953351</v>
+        <v>8.9694211017740422</v>
       </c>
       <c r="E168" s="11">
-        <v>22.294654498044327</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="F168" s="11">
-        <v>50.325945241199477</v>
+        <v>61.678594664931687</v>
       </c>
       <c r="G168" s="11">
-        <v>68.252933507170795</v>
+        <v>81.652569941444369</v>
       </c>
       <c r="H168" s="11">
-        <v>84.289439374185136</v>
+        <v>95.185426154847107</v>
       </c>
       <c r="I168" s="11">
-        <v>93.937418513689693</v>
+        <v>99.024072869225762</v>
       </c>
       <c r="J168" s="11">
-        <v>98.826597131681879</v>
+        <v>99.934938191281717</v>
       </c>
       <c r="K168" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="15">
@@ -5687,7 +5692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>21</v>
       </c>
@@ -5695,34 +5700,34 @@
         <v>23</v>
       </c>
       <c r="C170" s="9">
-        <v>3704</v>
+        <v>3711</v>
       </c>
       <c r="D170" s="13">
-        <v>12.165002627430372</v>
+        <v>12.162029298987317</v>
       </c>
       <c r="E170" s="11">
-        <v>22.921166306695465</v>
+        <v>30.80032336297494</v>
       </c>
       <c r="F170" s="11">
-        <v>48.731101511879046</v>
+        <v>59.822150363783344</v>
       </c>
       <c r="G170" s="11">
-        <v>66.414686825053991</v>
+        <v>80.14012395580707</v>
       </c>
       <c r="H170" s="11">
-        <v>82.046436285097187</v>
+        <v>93.721368903260569</v>
       </c>
       <c r="I170" s="11">
-        <v>92.602591792656582</v>
+        <v>98.679601185664239</v>
       </c>
       <c r="J170" s="11">
-        <v>98.515118790496757</v>
+        <v>99.865265427108596</v>
       </c>
       <c r="K170" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="15">
@@ -5753,7 +5758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="15"/>
@@ -5766,7 +5771,7 @@
       <c r="J172" s="16"/>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>46</v>
       </c>
@@ -5777,31 +5782,31 @@
         <v>438</v>
       </c>
       <c r="D173" s="13">
-        <v>3.2818822118986963</v>
+        <v>3.2742767436644988</v>
       </c>
       <c r="E173" s="11">
-        <v>39.269406392694059</v>
+        <v>55.25114155251142</v>
       </c>
       <c r="F173" s="11">
-        <v>65.06849315068493</v>
+        <v>78.767123287671239</v>
       </c>
       <c r="G173" s="11">
-        <v>83.333333333333343</v>
+        <v>92.009132420091319</v>
       </c>
       <c r="H173" s="11">
-        <v>92.922374429223737</v>
+        <v>98.173515981735164</v>
       </c>
       <c r="I173" s="11">
-        <v>97.945205479452056</v>
+        <v>99.771689497716892</v>
       </c>
       <c r="J173" s="11">
-        <v>99.315068493150676</v>
+        <v>100</v>
       </c>
       <c r="K173" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="15">
@@ -5832,7 +5837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>21</v>
       </c>
@@ -5843,22 +5848,22 @@
         <v>167</v>
       </c>
       <c r="D175" s="13">
-        <v>0.97649397731259502</v>
+        <v>0.97455648926237159</v>
       </c>
       <c r="E175" s="11">
-        <v>44.91017964071856</v>
+        <v>57.485029940119759</v>
       </c>
       <c r="F175" s="11">
-        <v>64.670658682634723</v>
+        <v>84.431137724550894</v>
       </c>
       <c r="G175" s="11">
-        <v>83.832335329341305</v>
+        <v>92.814371257485035</v>
       </c>
       <c r="H175" s="11">
-        <v>94.011976047904184</v>
+        <v>98.802395209580837</v>
       </c>
       <c r="I175" s="11">
-        <v>97.005988023952099</v>
+        <v>99.401197604790411</v>
       </c>
       <c r="J175" s="11">
         <v>100</v>
@@ -5867,7 +5872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="15">
@@ -5898,7 +5903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>21</v>
       </c>
@@ -5909,31 +5914,31 @@
         <v>605</v>
       </c>
       <c r="D177" s="13">
-        <v>1.9869942196531793</v>
+        <v>1.9827614459410743</v>
       </c>
       <c r="E177" s="11">
-        <v>40.826446280991732</v>
+        <v>55.867768595041326</v>
       </c>
       <c r="F177" s="11">
-        <v>64.95867768595042</v>
+        <v>80.330578512396684</v>
       </c>
       <c r="G177" s="11">
-        <v>83.471074380165291</v>
+        <v>92.231404958677686</v>
       </c>
       <c r="H177" s="11">
-        <v>93.223140495867767</v>
+        <v>98.347107438016536</v>
       </c>
       <c r="I177" s="11">
-        <v>97.685950413223139</v>
+        <v>99.669421487603302</v>
       </c>
       <c r="J177" s="11">
-        <v>99.504132231404967</v>
+        <v>100</v>
       </c>
       <c r="K177" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="15">
@@ -5964,7 +5969,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="15"/>
@@ -5977,7 +5982,7 @@
       <c r="J179" s="16"/>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>47</v>
       </c>
@@ -5985,34 +5990,34 @@
         <v>20</v>
       </c>
       <c r="C180" s="9">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D180" s="13">
-        <v>3.1170388131275288</v>
+        <v>3.1172908723929131</v>
       </c>
       <c r="E180" s="11">
-        <v>0.96153846153846156</v>
+        <v>1.6786570743405276</v>
       </c>
       <c r="F180" s="11">
-        <v>7.9326923076923075</v>
+        <v>13.908872901678656</v>
       </c>
       <c r="G180" s="11">
-        <v>37.259615384615387</v>
+        <v>49.160671462829733</v>
       </c>
       <c r="H180" s="11">
-        <v>76.682692307692307</v>
+        <v>87.290167865707431</v>
       </c>
       <c r="I180" s="11">
-        <v>93.269230769230774</v>
+        <v>98.561151079136692</v>
       </c>
       <c r="J180" s="11">
-        <v>98.798076923076934</v>
+        <v>99.760191846522787</v>
       </c>
       <c r="K180" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="15">
@@ -6043,7 +6048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>21</v>
       </c>
@@ -6054,31 +6059,31 @@
         <v>477</v>
       </c>
       <c r="D182" s="13">
-        <v>2.7891474681323825</v>
+        <v>2.7836134453781516</v>
       </c>
       <c r="E182" s="11">
-        <v>3.9832285115303985</v>
+        <v>5.2410901467505235</v>
       </c>
       <c r="F182" s="11">
-        <v>18.238993710691823</v>
+        <v>29.350104821802937</v>
       </c>
       <c r="G182" s="11">
-        <v>53.668763102725372</v>
+        <v>65.19916142557652</v>
       </c>
       <c r="H182" s="11">
-        <v>84.486373165618446</v>
+        <v>93.501048218029354</v>
       </c>
       <c r="I182" s="11">
-        <v>97.69392033542978</v>
+        <v>99.161425576519918</v>
       </c>
       <c r="J182" s="11">
-        <v>99.580712788259959</v>
+        <v>100</v>
       </c>
       <c r="K182" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="15">
@@ -6109,7 +6114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>21</v>
       </c>
@@ -6117,34 +6122,34 @@
         <v>23</v>
       </c>
       <c r="C184" s="9">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D184" s="13">
-        <v>2.9328691539674199</v>
+        <v>2.9298987316881329</v>
       </c>
       <c r="E184" s="11">
-        <v>2.5755879059350502</v>
+        <v>3.5794183445190155</v>
       </c>
       <c r="F184" s="11">
-        <v>13.437849944008958</v>
+        <v>22.14765100671141</v>
       </c>
       <c r="G184" s="11">
-        <v>46.024636058230683</v>
+        <v>57.718120805369132</v>
       </c>
       <c r="H184" s="11">
-        <v>80.851063829787222</v>
+        <v>90.604026845637591</v>
       </c>
       <c r="I184" s="11">
-        <v>95.632698768197088</v>
+        <v>98.881431767337816</v>
       </c>
       <c r="J184" s="11">
-        <v>99.216125419932808</v>
+        <v>99.888143176733777</v>
       </c>
       <c r="K184" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="15">
@@ -6175,7 +6180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="15"/>
@@ -6188,7 +6193,7 @@
       <c r="J186" s="16"/>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>48</v>
       </c>
@@ -6196,34 +6201,34 @@
         <v>20</v>
       </c>
       <c r="C187" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D187" s="13">
-        <v>1.1389180278735203</v>
+        <v>1.1437542049786948</v>
       </c>
       <c r="E187" s="11">
-        <v>7.2368421052631584</v>
+        <v>14.37908496732026</v>
       </c>
       <c r="F187" s="11">
-        <v>20.394736842105264</v>
+        <v>30.718954248366014</v>
       </c>
       <c r="G187" s="11">
-        <v>42.105263157894733</v>
+        <v>59.477124183006538</v>
       </c>
       <c r="H187" s="11">
-        <v>69.078947368421055</v>
+        <v>86.274509803921575</v>
       </c>
       <c r="I187" s="11">
-        <v>92.10526315789474</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="J187" s="11">
-        <v>97.368421052631575</v>
+        <v>100</v>
       </c>
       <c r="K187" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="15">
@@ -6254,7 +6259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>21</v>
       </c>
@@ -6265,22 +6270,22 @@
         <v>195</v>
       </c>
       <c r="D189" s="13">
-        <v>1.1402175184188983</v>
+        <v>1.1379551820728291</v>
       </c>
       <c r="E189" s="11">
-        <v>5.1282051282051277</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F189" s="11">
-        <v>22.051282051282051</v>
+        <v>32.820512820512818</v>
       </c>
       <c r="G189" s="11">
-        <v>50.769230769230766</v>
+        <v>62.051282051282051</v>
       </c>
       <c r="H189" s="11">
-        <v>78.461538461538467</v>
+        <v>92.820512820512818</v>
       </c>
       <c r="I189" s="11">
-        <v>92.820512820512818</v>
+        <v>99.487179487179489</v>
       </c>
       <c r="J189" s="11">
         <v>100</v>
@@ -6289,7 +6294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="15">
@@ -6320,7 +6325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
@@ -6328,34 +6333,34 @@
         <v>23</v>
       </c>
       <c r="C191" s="9">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D191" s="13">
-        <v>1.1396479243300053</v>
+        <v>1.1404974928718907</v>
       </c>
       <c r="E191" s="11">
-        <v>6.0518731988472618</v>
+        <v>10.057471264367816</v>
       </c>
       <c r="F191" s="11">
-        <v>21.32564841498559</v>
+        <v>31.896551724137932</v>
       </c>
       <c r="G191" s="11">
-        <v>46.97406340057637</v>
+        <v>60.919540229885058</v>
       </c>
       <c r="H191" s="11">
-        <v>74.351585014409224</v>
+        <v>89.942528735632195</v>
       </c>
       <c r="I191" s="11">
-        <v>92.507204610951007</v>
+        <v>98.850574712643677</v>
       </c>
       <c r="J191" s="11">
-        <v>98.847262247838614</v>
+        <v>100</v>
       </c>
       <c r="K191" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="15">
@@ -6386,7 +6391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="15"/>
@@ -6399,18 +6404,18 @@
       <c r="J193" s="16"/>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D194" s="13">
-        <v>7.49288176232579E-3</v>
+        <v>7.4755176795993127E-3</v>
       </c>
       <c r="E194" s="11">
         <v>0</v>
@@ -6434,7 +6439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="15">
@@ -6465,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>21</v>
       </c>
@@ -6476,16 +6481,16 @@
         <v>15</v>
       </c>
       <c r="D196" s="13">
-        <v>8.7709039878376804E-2</v>
+        <v>8.7535014005602249E-2</v>
       </c>
       <c r="E196" s="11">
         <v>20</v>
       </c>
       <c r="F196" s="11">
-        <v>60</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G196" s="11">
-        <v>86.666666666666671</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="H196" s="11">
         <v>93.333333333333329</v>
@@ -6500,7 +6505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="15">
@@ -6531,7 +6536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>21</v>
       </c>
@@ -6542,16 +6547,16 @@
         <v>16</v>
       </c>
       <c r="D198" s="13">
-        <v>5.2548607461902257E-2</v>
+        <v>5.2436666338937496E-2</v>
       </c>
       <c r="E198" s="11">
         <v>18.75</v>
       </c>
       <c r="F198" s="11">
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
       <c r="G198" s="11">
-        <v>81.25</v>
+        <v>87.5</v>
       </c>
       <c r="H198" s="11">
         <v>87.5</v>
@@ -6566,7 +6571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="15">
@@ -6597,7 +6602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="15"/>
@@ -6610,7 +6615,7 @@
       <c r="J200" s="16"/>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>49</v>
       </c>
@@ -6618,34 +6623,34 @@
         <v>20</v>
       </c>
       <c r="C201" s="9">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D201" s="13">
-        <v>2.4501723362805334</v>
+        <v>2.4519697989085745</v>
       </c>
       <c r="E201" s="11">
-        <v>3.669724770642202</v>
+        <v>5.4878048780487809</v>
       </c>
       <c r="F201" s="11">
-        <v>12.232415902140673</v>
+        <v>17.682926829268293</v>
       </c>
       <c r="G201" s="11">
-        <v>38.837920489296636</v>
+        <v>50.914634146341463</v>
       </c>
       <c r="H201" s="11">
-        <v>69.113149847094803</v>
+        <v>81.402439024390233</v>
       </c>
       <c r="I201" s="11">
-        <v>93.577981651376149</v>
+        <v>95.731707317073173</v>
       </c>
       <c r="J201" s="11">
-        <v>98.165137614678898</v>
+        <v>99.695121951219505</v>
       </c>
       <c r="K201" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="15">
@@ -6676,7 +6681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>21</v>
       </c>
@@ -6687,31 +6692,31 @@
         <v>256</v>
       </c>
       <c r="D203" s="13">
-        <v>1.4969009472576307</v>
+        <v>1.4939309056956116</v>
       </c>
       <c r="E203" s="11">
-        <v>7.421875</v>
+        <v>12.890625</v>
       </c>
       <c r="F203" s="11">
-        <v>23.046875</v>
+        <v>42.1875</v>
       </c>
       <c r="G203" s="11">
-        <v>62.890625</v>
+        <v>74.21875</v>
       </c>
       <c r="H203" s="11">
-        <v>82.421875</v>
+        <v>91.40625</v>
       </c>
       <c r="I203" s="11">
-        <v>95.703125</v>
+        <v>99.21875</v>
       </c>
       <c r="J203" s="11">
-        <v>99.609375</v>
+        <v>100</v>
       </c>
       <c r="K203" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="15">
@@ -6742,7 +6747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>21</v>
       </c>
@@ -6750,34 +6755,34 @@
         <v>23</v>
       </c>
       <c r="C205" s="9">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D205" s="13">
-        <v>1.9147398843930636</v>
+        <v>1.9139383213712189</v>
       </c>
       <c r="E205" s="11">
-        <v>5.3173241852487134</v>
+        <v>8.7328767123287676</v>
       </c>
       <c r="F205" s="11">
-        <v>16.981132075471699</v>
+        <v>28.424657534246577</v>
       </c>
       <c r="G205" s="11">
-        <v>49.399656946826759</v>
+        <v>61.130136986301366</v>
       </c>
       <c r="H205" s="11">
-        <v>74.957118353344768</v>
+        <v>85.787671232876718</v>
       </c>
       <c r="I205" s="11">
-        <v>94.511149228130364</v>
+        <v>97.260273972602747</v>
       </c>
       <c r="J205" s="11">
-        <v>98.799313893653519</v>
+        <v>99.828767123287676</v>
       </c>
       <c r="K205" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="15">
@@ -6808,7 +6813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="18"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -6821,7 +6826,7 @@
       <c r="J207" s="18"/>
       <c r="K207" s="18"/>
     </row>
-    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>50</v>
       </c>
@@ -6832,31 +6837,31 @@
         <v>1263</v>
       </c>
       <c r="D208" s="13">
-        <v>9.4635096658174742</v>
+        <v>9.4415788293339311</v>
       </c>
       <c r="E208" s="11">
-        <v>13.064133016627078</v>
+        <v>20.98178939034046</v>
       </c>
       <c r="F208" s="11">
-        <v>31.828978622327792</v>
+        <v>46.00158353127474</v>
       </c>
       <c r="G208" s="11">
-        <v>54.235946159936653</v>
+        <v>69.754552652414887</v>
       </c>
       <c r="H208" s="11">
-        <v>73.713380839271579</v>
+        <v>88.281868566904194</v>
       </c>
       <c r="I208" s="11">
-        <v>88.519398258115601</v>
+        <v>97.307996832937448</v>
       </c>
       <c r="J208" s="11">
-        <v>96.99129057798892</v>
+        <v>99.920823436262864</v>
       </c>
       <c r="K208" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="15">
@@ -6887,7 +6892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>21</v>
       </c>
@@ -6898,31 +6903,31 @@
         <v>400</v>
       </c>
       <c r="D210" s="13">
-        <v>2.3389077300900478</v>
+        <v>2.3342670401493932</v>
       </c>
       <c r="E210" s="11">
-        <v>17.5</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="F210" s="11">
-        <v>39.75</v>
+        <v>55.75</v>
       </c>
       <c r="G210" s="11">
-        <v>63.5</v>
+        <v>81.5</v>
       </c>
       <c r="H210" s="11">
-        <v>82.5</v>
+        <v>95.25</v>
       </c>
       <c r="I210" s="11">
-        <v>93.75</v>
+        <v>99</v>
       </c>
       <c r="J210" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K210" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="15">
@@ -6953,7 +6958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>21</v>
       </c>
@@ -6964,31 +6969,31 @@
         <v>1663</v>
       </c>
       <c r="D212" s="13">
-        <v>5.4617708880714666</v>
+        <v>5.4501360076033167</v>
       </c>
       <c r="E212" s="11">
-        <v>14.131088394467831</v>
+        <v>22.669873722188814</v>
       </c>
       <c r="F212" s="11">
-        <v>33.734215273601926</v>
+        <v>48.346361996392062</v>
       </c>
       <c r="G212" s="11">
-        <v>56.464221286831027</v>
+        <v>72.579675285628383</v>
       </c>
       <c r="H212" s="11">
-        <v>75.826819001803969</v>
+        <v>89.957907396271793</v>
       </c>
       <c r="I212" s="11">
-        <v>89.777510523150923</v>
+        <v>97.714972940469039</v>
       </c>
       <c r="J212" s="11">
-        <v>97.233914612146719</v>
+        <v>99.93986770895971</v>
       </c>
       <c r="K212" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="15">
@@ -7019,7 +7024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="15"/>
@@ -7032,7 +7037,7 @@
       <c r="J214" s="16"/>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>51</v>
       </c>
@@ -7040,34 +7045,34 @@
         <v>20</v>
       </c>
       <c r="C215" s="9">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D215" s="13">
-        <v>1.3037614266446875</v>
+        <v>1.3082155939298796</v>
       </c>
       <c r="E215" s="11">
-        <v>6.3218390804597711</v>
+        <v>10.285714285714285</v>
       </c>
       <c r="F215" s="11">
-        <v>20.689655172413794</v>
+        <v>39.428571428571431</v>
       </c>
       <c r="G215" s="11">
-        <v>56.321839080459768</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="H215" s="11">
-        <v>84.482758620689651</v>
+        <v>96</v>
       </c>
       <c r="I215" s="11">
-        <v>94.827586206896555</v>
+        <v>98.857142857142861</v>
       </c>
       <c r="J215" s="11">
-        <v>98.850574712643677</v>
+        <v>100</v>
       </c>
       <c r="K215" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="15">
@@ -7098,7 +7103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>21</v>
       </c>
@@ -7109,31 +7114,31 @@
         <v>146</v>
       </c>
       <c r="D217" s="13">
-        <v>0.85370132148286748</v>
+        <v>0.85200746965452845</v>
       </c>
       <c r="E217" s="11">
-        <v>14.383561643835616</v>
+        <v>22.602739726027394</v>
       </c>
       <c r="F217" s="11">
-        <v>39.726027397260275</v>
+        <v>56.164383561643838</v>
       </c>
       <c r="G217" s="11">
-        <v>68.493150684931507</v>
+        <v>78.767123287671239</v>
       </c>
       <c r="H217" s="11">
-        <v>86.301369863013704</v>
+        <v>94.520547945205479</v>
       </c>
       <c r="I217" s="11">
-        <v>95.205479452054803</v>
+        <v>100</v>
       </c>
       <c r="J217" s="11">
-        <v>99.315068493150676</v>
+        <v>100</v>
       </c>
       <c r="K217" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="15">
@@ -7164,7 +7169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>21</v>
       </c>
@@ -7172,34 +7177,34 @@
         <v>23</v>
       </c>
       <c r="C219" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D219" s="13">
-        <v>1.0509721492380453</v>
+        <v>1.0520106184249336</v>
       </c>
       <c r="E219" s="11">
-        <v>10</v>
+        <v>15.887850467289718</v>
       </c>
       <c r="F219" s="11">
-        <v>29.375</v>
+        <v>47.0404984423676</v>
       </c>
       <c r="G219" s="11">
-        <v>61.875</v>
+        <v>76.323987538940813</v>
       </c>
       <c r="H219" s="11">
-        <v>85.3125</v>
+        <v>95.327102803738313</v>
       </c>
       <c r="I219" s="11">
-        <v>95</v>
+        <v>99.376947040498436</v>
       </c>
       <c r="J219" s="11">
-        <v>99.0625</v>
+        <v>100</v>
       </c>
       <c r="K219" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="15">
@@ -7230,7 +7235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="15"/>
@@ -7243,7 +7248,7 @@
       <c r="J221" s="16"/>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>52</v>
       </c>
@@ -7254,31 +7259,31 @@
         <v>464</v>
       </c>
       <c r="D222" s="13">
-        <v>3.4766971377191669</v>
+        <v>3.4686402033340809</v>
       </c>
       <c r="E222" s="11">
-        <v>3.2327586206896552</v>
+        <v>6.25</v>
       </c>
       <c r="F222" s="11">
-        <v>14.655172413793101</v>
+        <v>24.78448275862069</v>
       </c>
       <c r="G222" s="11">
-        <v>42.672413793103445</v>
+        <v>57.543103448275865</v>
       </c>
       <c r="H222" s="11">
-        <v>71.33620689655173</v>
+        <v>88.577586206896555</v>
       </c>
       <c r="I222" s="11">
-        <v>88.146551724137936</v>
+        <v>98.275862068965509</v>
       </c>
       <c r="J222" s="11">
-        <v>98.060344827586206</v>
+        <v>100</v>
       </c>
       <c r="K222" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="15">
@@ -7309,7 +7314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>21</v>
       </c>
@@ -7317,34 +7322,34 @@
         <v>22</v>
       </c>
       <c r="C224" s="9">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="D224" s="13">
-        <v>8.8059876037890312</v>
+        <v>8.8060224089635852</v>
       </c>
       <c r="E224" s="11">
-        <v>6.1088977423638777</v>
+        <v>11.795891318754141</v>
       </c>
       <c r="F224" s="11">
-        <v>22.841965471447541</v>
+        <v>37.640821736249173</v>
       </c>
       <c r="G224" s="11">
-        <v>54.648074369189899</v>
+        <v>70.245195493704443</v>
       </c>
       <c r="H224" s="11">
-        <v>81.341301460823374</v>
+        <v>93.373094764744863</v>
       </c>
       <c r="I224" s="11">
-        <v>94.355909694555123</v>
+        <v>99.13850231941683</v>
       </c>
       <c r="J224" s="11">
-        <v>98.406374501992033</v>
+        <v>100</v>
       </c>
       <c r="K224" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="15">
@@ -7375,7 +7380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>21</v>
       </c>
@@ -7383,34 +7388,34 @@
         <v>23</v>
       </c>
       <c r="C226" s="9">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="D226" s="13">
-        <v>6.4700472937467151</v>
+        <v>6.4660964179202303</v>
       </c>
       <c r="E226" s="11">
-        <v>5.4314720812182742</v>
+        <v>10.491637100861633</v>
       </c>
       <c r="F226" s="11">
-        <v>20.913705583756347</v>
+        <v>34.617334009123162</v>
       </c>
       <c r="G226" s="11">
-        <v>51.827411167512693</v>
+        <v>67.257982767359351</v>
       </c>
       <c r="H226" s="11">
-        <v>78.984771573604064</v>
+        <v>92.245311708058793</v>
       </c>
       <c r="I226" s="11">
-        <v>92.89340101522842</v>
+        <v>98.93563101875317</v>
       </c>
       <c r="J226" s="11">
-        <v>98.324873096446694</v>
+        <v>100</v>
       </c>
       <c r="K226" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="15">
@@ -7441,7 +7446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="15"/>
@@ -7454,7 +7459,7 @@
       <c r="J228" s="16"/>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>53</v>
       </c>
@@ -7462,34 +7467,34 @@
         <v>20</v>
       </c>
       <c r="C229" s="9">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D229" s="13">
-        <v>1.9481492582047055</v>
+        <v>1.9511101143754206</v>
       </c>
       <c r="E229" s="11">
-        <v>7.6923076923076925</v>
+        <v>11.494252873563218</v>
       </c>
       <c r="F229" s="11">
-        <v>21.153846153846153</v>
+        <v>29.885057471264371</v>
       </c>
       <c r="G229" s="11">
-        <v>47.307692307692307</v>
+        <v>59.38697318007663</v>
       </c>
       <c r="H229" s="11">
-        <v>74.230769230769226</v>
+        <v>89.272030651340998</v>
       </c>
       <c r="I229" s="11">
-        <v>89.230769230769241</v>
+        <v>97.701149425287355</v>
       </c>
       <c r="J229" s="11">
-        <v>97.307692307692307</v>
+        <v>100</v>
       </c>
       <c r="K229" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="15">
@@ -7520,7 +7525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
@@ -7531,31 +7536,31 @@
         <v>865</v>
       </c>
       <c r="D231" s="13">
-        <v>5.0578879663197291</v>
+        <v>5.0478524743230624</v>
       </c>
       <c r="E231" s="11">
-        <v>5.4335260115606934</v>
+        <v>12.485549132947977</v>
       </c>
       <c r="F231" s="11">
-        <v>23.468208092485547</v>
+        <v>36.184971098265898</v>
       </c>
       <c r="G231" s="11">
-        <v>52.254335260115603</v>
+        <v>67.398843930635849</v>
       </c>
       <c r="H231" s="11">
-        <v>79.306358381502889</v>
+        <v>92.601156069364166</v>
       </c>
       <c r="I231" s="11">
-        <v>93.988439306358387</v>
+        <v>98.728323699421964</v>
       </c>
       <c r="J231" s="11">
-        <v>98.959537572254334</v>
+        <v>99.884393063583815</v>
       </c>
       <c r="K231" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="15">
@@ -7586,7 +7591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
@@ -7594,34 +7599,34 @@
         <v>23</v>
       </c>
       <c r="C233" s="9">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D233" s="13">
-        <v>3.6948239621650023</v>
+        <v>3.6902303936027265</v>
       </c>
       <c r="E233" s="11">
-        <v>5.9555555555555557</v>
+        <v>12.255772646536411</v>
       </c>
       <c r="F233" s="11">
-        <v>22.933333333333334</v>
+        <v>34.724689165186504</v>
       </c>
       <c r="G233" s="11">
-        <v>51.111111111111107</v>
+        <v>65.541740674955591</v>
       </c>
       <c r="H233" s="11">
-        <v>78.133333333333326</v>
+        <v>91.829484902309062</v>
       </c>
       <c r="I233" s="11">
-        <v>92.888888888888886</v>
+        <v>98.490230905861452</v>
       </c>
       <c r="J233" s="11">
-        <v>98.577777777777769</v>
+        <v>99.911190053285964</v>
       </c>
       <c r="K233" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="15">
@@ -7652,7 +7657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="15"/>
@@ -7665,7 +7670,7 @@
       <c r="J235" s="16"/>
       <c r="K235" s="17"/>
     </row>
-    <row r="236" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>54</v>
       </c>
@@ -7673,34 +7678,34 @@
         <v>20</v>
       </c>
       <c r="C236" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D236" s="13">
-        <v>1.7833058594335383</v>
+        <v>1.7866487254242356</v>
       </c>
       <c r="E236" s="11">
-        <v>3.3613445378151261</v>
+        <v>5.02092050209205</v>
       </c>
       <c r="F236" s="11">
-        <v>12.605042016806722</v>
+        <v>22.17573221757322</v>
       </c>
       <c r="G236" s="11">
-        <v>41.596638655462186</v>
+        <v>53.556485355648533</v>
       </c>
       <c r="H236" s="11">
-        <v>72.268907563025209</v>
+        <v>88.28451882845188</v>
       </c>
       <c r="I236" s="11">
-        <v>92.016806722689068</v>
+        <v>97.907949790794973</v>
       </c>
       <c r="J236" s="11">
-        <v>97.899159663865547</v>
+        <v>99.581589958159</v>
       </c>
       <c r="K236" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="15">
@@ -7731,7 +7736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>21</v>
       </c>
@@ -7739,34 +7744,34 @@
         <v>22</v>
       </c>
       <c r="C238" s="9">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="D238" s="13">
-        <v>5.9876037890305227</v>
+        <v>6.0049019607843137</v>
       </c>
       <c r="E238" s="11">
-        <v>7.421875</v>
+        <v>12.439261418853254</v>
       </c>
       <c r="F238" s="11">
-        <v>25.5859375</v>
+        <v>37.609329446064137</v>
       </c>
       <c r="G238" s="11">
-        <v>58.88671875</v>
+        <v>70.651117589893104</v>
       </c>
       <c r="H238" s="11">
-        <v>83.3984375</v>
+        <v>92.419825072886297</v>
       </c>
       <c r="I238" s="11">
-        <v>94.7265625</v>
+        <v>98.931000971817298</v>
       </c>
       <c r="J238" s="11">
-        <v>99.12109375</v>
+        <v>100</v>
       </c>
       <c r="K238" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="15">
@@ -7797,7 +7802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>21</v>
       </c>
@@ -7805,34 +7810,34 @@
         <v>23</v>
       </c>
       <c r="C240" s="9">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="D240" s="13">
-        <v>4.1447714135575406</v>
+        <v>4.1556058073607973</v>
       </c>
       <c r="E240" s="11">
-        <v>6.6561014263074476</v>
+        <v>11.041009463722396</v>
       </c>
       <c r="F240" s="11">
-        <v>23.137876386687797</v>
+        <v>34.700315457413247</v>
       </c>
       <c r="G240" s="11">
-        <v>55.625990491283673</v>
+        <v>67.429022082018932</v>
       </c>
       <c r="H240" s="11">
-        <v>81.299524564183827</v>
+        <v>91.640378548895896</v>
       </c>
       <c r="I240" s="11">
-        <v>94.215530903328045</v>
+        <v>98.738170347003148</v>
       </c>
       <c r="J240" s="11">
-        <v>98.890649762282095</v>
+        <v>99.921135646687702</v>
       </c>
       <c r="K240" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="15">
@@ -7863,7 +7868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="15"/>
@@ -7876,7 +7881,7 @@
       <c r="J242" s="16"/>
       <c r="K242" s="17"/>
     </row>
-    <row r="243" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>55</v>
       </c>
@@ -7887,22 +7892,22 @@
         <v>45</v>
       </c>
       <c r="D243" s="13">
-        <v>0.33717967930466058</v>
+        <v>0.33639829558196904</v>
       </c>
       <c r="E243" s="11">
-        <v>24.444444444444443</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F243" s="11">
-        <v>48.888888888888886</v>
+        <v>60</v>
       </c>
       <c r="G243" s="11">
-        <v>73.333333333333329</v>
+        <v>75.555555555555557</v>
       </c>
       <c r="H243" s="11">
-        <v>91.111111111111114</v>
+        <v>97.777777777777771</v>
       </c>
       <c r="I243" s="11">
-        <v>97.777777777777771</v>
+        <v>100</v>
       </c>
       <c r="J243" s="11">
         <v>100</v>
@@ -7911,7 +7916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="15">
@@ -7942,7 +7947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>21</v>
       </c>
@@ -7950,25 +7955,25 @@
         <v>22</v>
       </c>
       <c r="C245" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D245" s="13">
-        <v>0.60811600982341241</v>
+        <v>0.61274509803921573</v>
       </c>
       <c r="E245" s="11">
-        <v>28.846153846153843</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="F245" s="11">
-        <v>44.230769230769226</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="G245" s="11">
-        <v>68.269230769230774</v>
+        <v>80</v>
       </c>
       <c r="H245" s="11">
-        <v>89.423076923076934</v>
+        <v>99.047619047619051</v>
       </c>
       <c r="I245" s="11">
-        <v>97.115384615384613</v>
+        <v>100</v>
       </c>
       <c r="J245" s="11">
         <v>100</v>
@@ -7977,7 +7982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="15">
@@ -8008,7 +8013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>21</v>
       </c>
@@ -8016,25 +8021,25 @@
         <v>23</v>
       </c>
       <c r="C247" s="9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D247" s="13">
-        <v>0.48935890698896484</v>
+        <v>0.49159374692753904</v>
       </c>
       <c r="E247" s="11">
-        <v>27.516778523489933</v>
+        <v>30</v>
       </c>
       <c r="F247" s="11">
-        <v>45.63758389261745</v>
+        <v>55.333333333333336</v>
       </c>
       <c r="G247" s="11">
-        <v>69.798657718120808</v>
+        <v>78.666666666666657</v>
       </c>
       <c r="H247" s="11">
-        <v>89.932885906040269</v>
+        <v>98.666666666666671</v>
       </c>
       <c r="I247" s="11">
-        <v>97.31543624161074</v>
+        <v>100</v>
       </c>
       <c r="J247" s="11">
         <v>100</v>
@@ -8043,7 +8048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="15">
@@ -8074,7 +8079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="15"/>
@@ -8087,7 +8092,7 @@
       <c r="J249" s="16"/>
       <c r="K249" s="17"/>
     </row>
-    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>56</v>
       </c>
@@ -8098,22 +8103,22 @@
         <v>63</v>
       </c>
       <c r="D250" s="13">
-        <v>0.47205155102652485</v>
+        <v>0.47095761381475665</v>
       </c>
       <c r="E250" s="11">
-        <v>6.3492063492063489</v>
+        <v>9.5238095238095237</v>
       </c>
       <c r="F250" s="11">
-        <v>17.460317460317459</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G250" s="11">
-        <v>39.682539682539684</v>
+        <v>61.904761904761905</v>
       </c>
       <c r="H250" s="11">
-        <v>76.19047619047619</v>
+        <v>87.301587301587304</v>
       </c>
       <c r="I250" s="11">
-        <v>96.825396825396822</v>
+        <v>100</v>
       </c>
       <c r="J250" s="11">
         <v>100</v>
@@ -8122,7 +8127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="15">
@@ -8153,7 +8158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>21</v>
       </c>
@@ -8164,22 +8169,22 @@
         <v>197</v>
       </c>
       <c r="D252" s="13">
-        <v>1.1519120570693486</v>
+        <v>1.1496265172735762</v>
       </c>
       <c r="E252" s="11">
-        <v>5.0761421319796955</v>
+        <v>11.167512690355331</v>
       </c>
       <c r="F252" s="11">
-        <v>25.888324873096447</v>
+        <v>43.654822335025379</v>
       </c>
       <c r="G252" s="11">
-        <v>58.375634517766493</v>
+        <v>72.081218274111677</v>
       </c>
       <c r="H252" s="11">
-        <v>87.817258883248726</v>
+        <v>93.401015228426402</v>
       </c>
       <c r="I252" s="11">
-        <v>98.984771573604064</v>
+        <v>100</v>
       </c>
       <c r="J252" s="11">
         <v>100</v>
@@ -8188,7 +8193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="15">
@@ -8219,7 +8224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>21</v>
       </c>
@@ -8230,22 +8235,22 @@
         <v>260</v>
       </c>
       <c r="D254" s="13">
-        <v>0.8539148712559117</v>
+        <v>0.85209582800773431</v>
       </c>
       <c r="E254" s="11">
-        <v>5.384615384615385</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="F254" s="11">
-        <v>23.846153846153847</v>
+        <v>41.153846153846153</v>
       </c>
       <c r="G254" s="11">
-        <v>53.846153846153847</v>
+        <v>69.615384615384613</v>
       </c>
       <c r="H254" s="11">
-        <v>85</v>
+        <v>91.92307692307692</v>
       </c>
       <c r="I254" s="11">
-        <v>98.461538461538467</v>
+        <v>100</v>
       </c>
       <c r="J254" s="11">
         <v>100</v>
@@ -8254,7 +8259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="15">
@@ -8285,7 +8290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="18"/>
       <c r="C256" s="18"/>
@@ -8298,7 +8303,7 @@
       <c r="J256" s="18"/>
       <c r="K256" s="18"/>
     </row>
-    <row r="257" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>57</v>
       </c>
@@ -8309,22 +8314,22 @@
         <v>40</v>
       </c>
       <c r="D257" s="13">
-        <v>0.29971527049303165</v>
+        <v>0.2990207071839725</v>
       </c>
       <c r="E257" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F257" s="11">
-        <v>22.5</v>
+        <v>35</v>
       </c>
       <c r="G257" s="11">
-        <v>45</v>
+        <v>62.5</v>
       </c>
       <c r="H257" s="11">
-        <v>65</v>
+        <v>92.5</v>
       </c>
       <c r="I257" s="11">
-        <v>92.5</v>
+        <v>100</v>
       </c>
       <c r="J257" s="11">
         <v>100</v>
@@ -8333,7 +8338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="15">
@@ -8364,7 +8369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>21</v>
       </c>
@@ -8375,31 +8380,31 @@
         <v>168</v>
       </c>
       <c r="D259" s="13">
-        <v>0.98234124663782019</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="E259" s="11">
-        <v>5.3571428571428568</v>
+        <v>8.9285714285714288</v>
       </c>
       <c r="F259" s="11">
-        <v>16.666666666666664</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="G259" s="11">
-        <v>37.5</v>
+        <v>64.88095238095238</v>
       </c>
       <c r="H259" s="11">
-        <v>64.285714285714292</v>
+        <v>88.095238095238088</v>
       </c>
       <c r="I259" s="11">
-        <v>86.30952380952381</v>
+        <v>98.214285714285708</v>
       </c>
       <c r="J259" s="11">
-        <v>98.80952380952381</v>
+        <v>100</v>
       </c>
       <c r="K259" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="15">
@@ -8430,7 +8435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>21</v>
       </c>
@@ -8441,31 +8446,31 @@
         <v>208</v>
       </c>
       <c r="D261" s="13">
-        <v>0.68313189700472932</v>
+        <v>0.68167666240618752</v>
       </c>
       <c r="E261" s="11">
-        <v>5.2884615384615383</v>
+        <v>9.1346153846153832</v>
       </c>
       <c r="F261" s="11">
-        <v>17.78846153846154</v>
+        <v>29.807692307692307</v>
       </c>
       <c r="G261" s="11">
-        <v>38.942307692307693</v>
+        <v>64.423076923076934</v>
       </c>
       <c r="H261" s="11">
-        <v>64.423076923076934</v>
+        <v>88.942307692307693</v>
       </c>
       <c r="I261" s="11">
-        <v>87.5</v>
+        <v>98.557692307692307</v>
       </c>
       <c r="J261" s="11">
-        <v>99.038461538461547</v>
+        <v>100</v>
       </c>
       <c r="K261" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="15">
@@ -8496,7 +8501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="15"/>
@@ -8509,7 +8514,7 @@
       <c r="J263" s="16"/>
       <c r="K263" s="17"/>
     </row>
-    <row r="264" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>58</v>
       </c>
@@ -8520,13 +8525,13 @@
         <v>77</v>
       </c>
       <c r="D264" s="13">
-        <v>0.57695189569908589</v>
+        <v>0.57561486132914708</v>
       </c>
       <c r="E264" s="11">
-        <v>15.584415584415584</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="F264" s="11">
-        <v>63.636363636363633</v>
+        <v>67.532467532467535</v>
       </c>
       <c r="G264" s="11">
         <v>83.116883116883116</v>
@@ -8544,7 +8549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="15">
@@ -8575,7 +8580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>21</v>
       </c>
@@ -8586,13 +8591,13 @@
         <v>84</v>
       </c>
       <c r="D266" s="13">
-        <v>0.49117062331891009</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="E266" s="11">
-        <v>14.285714285714285</v>
+        <v>34.523809523809526</v>
       </c>
       <c r="F266" s="11">
-        <v>75</v>
+        <v>82.142857142857139</v>
       </c>
       <c r="G266" s="11">
         <v>88.095238095238088</v>
@@ -8601,16 +8606,16 @@
         <v>94.047619047619051</v>
       </c>
       <c r="I266" s="11">
-        <v>96.428571428571431</v>
+        <v>97.61904761904762</v>
       </c>
       <c r="J266" s="11">
-        <v>96.428571428571431</v>
+        <v>100</v>
       </c>
       <c r="K266" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="15">
@@ -8641,7 +8646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>21</v>
       </c>
@@ -8652,13 +8657,13 @@
         <v>161</v>
       </c>
       <c r="D268" s="13">
-        <v>0.52877036258539145</v>
+        <v>0.52764395503555861</v>
       </c>
       <c r="E268" s="11">
-        <v>14.906832298136646</v>
+        <v>30.434782608695656</v>
       </c>
       <c r="F268" s="11">
-        <v>69.565217391304344</v>
+        <v>75.155279503105589</v>
       </c>
       <c r="G268" s="11">
         <v>85.714285714285708</v>
@@ -8667,16 +8672,16 @@
         <v>91.925465838509311</v>
       </c>
       <c r="I268" s="11">
-        <v>97.515527950310556</v>
+        <v>98.136645962732914</v>
       </c>
       <c r="J268" s="11">
-        <v>97.515527950310556</v>
+        <v>99.378881987577643</v>
       </c>
       <c r="K268" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="15">
@@ -8707,7 +8712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="15"/>
@@ -8720,7 +8725,7 @@
       <c r="J270" s="16"/>
       <c r="K270" s="17"/>
     </row>
-    <row r="271" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>59</v>
       </c>
@@ -8731,31 +8736,31 @@
         <v>138</v>
       </c>
       <c r="D271" s="13">
-        <v>1.0340176832009591</v>
+        <v>1.031621439784705</v>
       </c>
       <c r="E271" s="11">
-        <v>6.5217391304347823</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="F271" s="11">
-        <v>31.884057971014489</v>
+        <v>40.579710144927539</v>
       </c>
       <c r="G271" s="11">
-        <v>61.594202898550719</v>
+        <v>72.463768115942031</v>
       </c>
       <c r="H271" s="11">
-        <v>79.710144927536234</v>
+        <v>93.478260869565219</v>
       </c>
       <c r="I271" s="11">
-        <v>91.304347826086953</v>
+        <v>97.826086956521735</v>
       </c>
       <c r="J271" s="11">
-        <v>98.550724637681171</v>
+        <v>100</v>
       </c>
       <c r="K271" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="15">
@@ -8786,7 +8791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>21</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>24</v>
       </c>
       <c r="D273" s="13">
-        <v>0.14033446380540288</v>
+        <v>0.14005602240896359</v>
       </c>
       <c r="E273" s="11">
         <v>4.1666666666666661</v>
@@ -8806,13 +8811,13 @@
         <v>20.833333333333336</v>
       </c>
       <c r="G273" s="11">
-        <v>37.5</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="H273" s="11">
-        <v>62.5</v>
+        <v>87.5</v>
       </c>
       <c r="I273" s="11">
-        <v>91.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="J273" s="11">
         <v>100</v>
@@ -8821,7 +8826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="15">
@@ -8852,7 +8857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>21</v>
       </c>
@@ -8863,31 +8868,31 @@
         <v>162</v>
       </c>
       <c r="D275" s="13">
-        <v>0.53205465055176038</v>
+        <v>0.53092124668174223</v>
       </c>
       <c r="E275" s="11">
-        <v>6.1728395061728394</v>
+        <v>8.0246913580246915</v>
       </c>
       <c r="F275" s="11">
-        <v>30.246913580246915</v>
+        <v>37.654320987654323</v>
       </c>
       <c r="G275" s="11">
-        <v>58.024691358024697</v>
+        <v>70.370370370370367</v>
       </c>
       <c r="H275" s="11">
-        <v>77.160493827160494</v>
+        <v>92.592592592592595</v>
       </c>
       <c r="I275" s="11">
-        <v>91.358024691358025</v>
+        <v>98.148148148148152</v>
       </c>
       <c r="J275" s="11">
-        <v>98.76543209876543</v>
+        <v>100</v>
       </c>
       <c r="K275" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="15">
@@ -8918,7 +8923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="15"/>
@@ -8931,7 +8936,7 @@
       <c r="J277" s="16"/>
       <c r="K277" s="17"/>
     </row>
-    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>60</v>
       </c>
@@ -8942,31 +8947,31 @@
         <v>33</v>
       </c>
       <c r="D278" s="13">
-        <v>0.24726509815675107</v>
+        <v>0.24669208342677729</v>
       </c>
       <c r="E278" s="11">
-        <v>6.0606060606060606</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="F278" s="11">
-        <v>15.151515151515152</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G278" s="11">
-        <v>42.424242424242422</v>
+        <v>60.606060606060609</v>
       </c>
       <c r="H278" s="11">
-        <v>66.666666666666657</v>
+        <v>75.757575757575751</v>
       </c>
       <c r="I278" s="11">
-        <v>90.909090909090907</v>
+        <v>96.969696969696969</v>
       </c>
       <c r="J278" s="11">
-        <v>96.969696969696969</v>
+        <v>100</v>
       </c>
       <c r="K278" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="15">
@@ -8997,7 +9002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>21</v>
       </c>
@@ -9008,19 +9013,19 @@
         <v>17</v>
       </c>
       <c r="D280" s="13">
-        <v>9.940357852882703E-2</v>
+        <v>9.9206349206349201E-2</v>
       </c>
       <c r="E280" s="11">
-        <v>5.8823529411764701</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="F280" s="11">
-        <v>23.52941176470588</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="G280" s="11">
-        <v>41.17647058823529</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="H280" s="11">
-        <v>82.35294117647058</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="I280" s="11">
         <v>100</v>
@@ -9032,7 +9037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="15">
@@ -9063,7 +9068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>21</v>
       </c>
@@ -9074,31 +9079,31 @@
         <v>50</v>
       </c>
       <c r="D282" s="13">
-        <v>0.16421439831844456</v>
+        <v>0.16386458230917969</v>
       </c>
       <c r="E282" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F282" s="11">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G282" s="11">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H282" s="11">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I282" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J282" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K282" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="15">
@@ -9129,7 +9134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="15"/>
@@ -9142,7 +9147,7 @@
       <c r="J284" s="16"/>
       <c r="K284" s="17"/>
     </row>
-    <row r="285" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
         <v>61</v>
       </c>
@@ -9150,34 +9155,34 @@
         <v>20</v>
       </c>
       <c r="C285" s="10">
-        <v>13346</v>
+        <v>13377</v>
       </c>
       <c r="D285" s="14">
         <v>100</v>
       </c>
       <c r="E285" s="12">
-        <v>11.306758579349619</v>
+        <v>16.767586155341256</v>
       </c>
       <c r="F285" s="12">
-        <v>28.945002247864526</v>
+        <v>40.008970621215518</v>
       </c>
       <c r="G285" s="12">
-        <v>52.779859133822868</v>
+        <v>67.3618898108694</v>
       </c>
       <c r="H285" s="12">
-        <v>76.494829911583992</v>
+        <v>89.967855273977733</v>
       </c>
       <c r="I285" s="12">
-        <v>91.780308706728604</v>
+        <v>98.258204380653353</v>
       </c>
       <c r="J285" s="12">
-        <v>98.194215495279479</v>
+        <v>99.87291619944682</v>
       </c>
       <c r="K285" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="15">
@@ -9208,7 +9213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>21</v>
       </c>
@@ -9216,34 +9221,34 @@
         <v>22</v>
       </c>
       <c r="C287" s="9">
-        <v>17102</v>
+        <v>17136</v>
       </c>
       <c r="D287" s="13">
         <v>100</v>
       </c>
       <c r="E287" s="11">
-        <v>10.47245936147819</v>
+        <v>16.59080298786181</v>
       </c>
       <c r="F287" s="11">
-        <v>30.668927610805753</v>
+        <v>44.158496732026144</v>
       </c>
       <c r="G287" s="11">
-        <v>58.724125833235874</v>
+        <v>73.348506069094299</v>
       </c>
       <c r="H287" s="11">
-        <v>82.317857560519229</v>
+        <v>93.242296918767508</v>
       </c>
       <c r="I287" s="11">
-        <v>94.754999415273062</v>
+        <v>99.013772175536886</v>
       </c>
       <c r="J287" s="11">
-        <v>98.965033329435158</v>
+        <v>99.94747899159664</v>
       </c>
       <c r="K287" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="15">
@@ -9274,7 +9279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
@@ -9282,34 +9287,34 @@
         <v>23</v>
       </c>
       <c r="C289" s="9">
-        <v>30448</v>
+        <v>30513</v>
       </c>
       <c r="D289" s="13">
         <v>100</v>
       </c>
       <c r="E289" s="11">
-        <v>10.83815028901734</v>
+        <v>16.66830531248976</v>
       </c>
       <c r="F289" s="11">
-        <v>29.913294797687861</v>
+        <v>42.339330777045845</v>
       </c>
       <c r="G289" s="11">
-        <v>56.118628481345247</v>
+        <v>70.723953724641959</v>
       </c>
       <c r="H289" s="11">
-        <v>79.765501839201264</v>
+        <v>91.80677088454101</v>
       </c>
       <c r="I289" s="11">
-        <v>93.451129795060424</v>
+        <v>98.682528758234199</v>
       </c>
       <c r="J289" s="11">
-        <v>98.627167630057798</v>
+        <v>99.914790417199228</v>
       </c>
       <c r="K289" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="15">
@@ -9340,7 +9345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="18"/>
       <c r="C291" s="18"/>
@@ -9353,24 +9358,24 @@
       <c r="J291" s="18"/>
       <c r="K291" s="18"/>
     </row>
-    <row r="292" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="19" t="s">
-        <v>67</v>
+    <row r="298" spans="1:11" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -9383,7 +9388,7 @@
     <mergeCell ref="A8:K8"/>
   </mergeCells>
   <pageMargins left="0.39370100000000002" right="0.39370100000000002" top="0.59" bottom="0.59" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="60" max="16383" man="1"/>
     <brk id="109" max="16383" man="1"/>
@@ -9407,6 +9412,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010090D0A8DD6E31254CB6B82BDDBE6EF879" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61df0b1d8400fc727567e63bfe041aeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b5ce7ee-8aee-4f1d-80d8-e6e7f973b835" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d048d99c9241f1c9d2995dcd3d31fee4" ns2:_="">
     <xsd:import namespace="9b5ce7ee-8aee-4f1d-80d8-e6e7f973b835"/>
@@ -9590,14 +9601,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47E87624-3C85-4FEA-A9B5-1C42226F023D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{996CD61D-2346-4264-BE8E-6DCB0E3C253F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -9605,7 +9610,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBAC1228-85A2-4F20-BE5F-461AF646A1AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FCA2D8-9695-4D7E-A774-278445B7269E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F92420FB-09D9-4062-976F-D54F61EFEF75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9620,13 +9634,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC0F03D9-B08A-4AEF-8905-A0ADF95A15AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>